--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_4_18.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_4_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>589753.954568894</v>
+        <v>457465.3698877822</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>789327.8222377771</v>
+        <v>789327.8222377767</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23209572.32576122</v>
+        <v>23209572.3257612</v>
       </c>
     </row>
     <row r="9">
@@ -1384,16 +1384,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>56.80099260150969</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>64.48795708618265</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>64.48795708618265</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>64.48795708618265</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1426,19 +1426,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>64.48795708618289</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>64.48795708618289</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>64.48795708618289</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>56.80099260150985</v>
       </c>
     </row>
     <row r="12">
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>64.48795708618265</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1457,22 +1457,22 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>64.48795708618289</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>64.48795708618289</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>61.19102709181682</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>64.48795708618265</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>60.0979225958755</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1493,10 +1493,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>24.96667318100167</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>64.48795708618289</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1505,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>31.83431942050819</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>64.48795708618289</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>56.80099260150985</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1654,25 +1654,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>56.80099260150969</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>64.48795708618265</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>64.48795708618289</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>64.48795708618265</v>
+        <v>64.48795708618289</v>
       </c>
       <c r="X14" t="n">
-        <v>64.48795708618265</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1685,13 +1685,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>56.80099260150969</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>31.83431942050819</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>64.48795708618289</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1700,13 +1700,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>64.48795708618265</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>64.48795708618265</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>64.48795708618265</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1730,10 +1730,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>24.96667318100167</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>64.48795708618289</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1742,7 +1742,7 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>64.48795708618289</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1852,13 +1852,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>58.15096628427222</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>69.06984594488608</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1870,7 +1870,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>2.685754023983435</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -1888,19 +1888,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>69.06984594488607</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>69.06984594488607</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>69.06984594488607</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>60.83672030825561</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>69.06984594488608</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>69.06984594488608</v>
       </c>
     </row>
     <row r="18">
@@ -1934,19 +1934,19 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>1.475703740636675</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>69.06984594488607</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>69.06984594488607</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>69.06984594488607</v>
+        <v>36.86567931918455</v>
       </c>
       <c r="J18" t="n">
-        <v>59.36101656761896</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1967,13 +1967,13 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>23.97104098907107</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>69.06984594488608</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>69.06984594488608</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -1985,7 +1985,7 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>69.06984594488608</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2083,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>69.06984594488605</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2098,52 +2098,52 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2.685754023983435</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
         <v>69.06984594488605</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>58.15096628427217</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>69.06984594488605</v>
       </c>
       <c r="U20" t="n">
-        <v>60.83672030825561</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>69.06984594488605</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>69.06984594488605</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2162,19 +2162,19 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>36.86567931918455</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>69.06984594488605</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>60.83672030825558</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>69.06984594488605</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2204,22 +2204,22 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>23.97104098907107</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
         <v>69.06984594488605</v>
       </c>
-      <c r="S21" t="n">
-        <v>0</v>
-      </c>
-      <c r="T21" t="n">
-        <v>0</v>
-      </c>
       <c r="U21" t="n">
-        <v>69.06984594488605</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>69.06984594488605</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2338,13 +2338,13 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>57.87742751940751</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>2.685754023983435</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -2362,31 +2362,31 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>70.48828190750086</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>73.65173480358939</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>73.65173480358939</v>
       </c>
       <c r="T23" t="n">
-        <v>73.65173480358939</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>63.72663443947948</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>73.65173480358939</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.65173480358939</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2411,61 +2411,61 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>64.8724480150015</v>
+      </c>
+      <c r="V24" t="n">
         <v>73.65173480358939</v>
       </c>
-      <c r="H24" t="n">
+      <c r="W24" t="n">
         <v>73.65173480358939</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>59.36101656761896</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0</v>
-      </c>
-      <c r="R24" t="n">
-        <v>0</v>
-      </c>
-      <c r="S24" t="n">
-        <v>5.51143144738252</v>
-      </c>
-      <c r="T24" t="n">
+      <c r="X24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="n">
         <v>73.65173480358939</v>
-      </c>
-      <c r="U24" t="n">
-        <v>0</v>
-      </c>
-      <c r="V24" t="n">
-        <v>0</v>
-      </c>
-      <c r="W24" t="n">
-        <v>0</v>
-      </c>
-      <c r="X24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>60.56318154339095</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2569,10 +2569,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>73.65173480358939</v>
       </c>
       <c r="H26" t="n">
-        <v>73.65173480358939</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>73.65173480358939</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2620,10 +2620,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>60.56318154339093</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>73.65173480358939</v>
       </c>
     </row>
     <row r="27">
@@ -2678,10 +2678,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>23.97104098907107</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>73.65173480358939</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2690,10 +2690,10 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>40.9014070259304</v>
       </c>
       <c r="V27" t="n">
-        <v>64.8724480150015</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>73.65173480358939</v>
@@ -2702,7 +2702,7 @@
         <v>73.65173480358939</v>
       </c>
       <c r="Y27" t="n">
-        <v>73.65173480358939</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2794,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>73.65173480358939</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2803,10 +2803,10 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>60.56318154339095</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>73.65173480358939</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2815,7 +2815,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>60.56318154339095</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2845,14 +2845,14 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
         <v>73.65173480358939</v>
       </c>
-      <c r="U29" t="n">
-        <v>73.65173480358939</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>73.65173480358939</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2870,70 +2870,70 @@
         </is>
       </c>
       <c r="B30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
+        <v>64.8724480150015</v>
+      </c>
+      <c r="V30" t="n">
         <v>73.65173480358939</v>
       </c>
-      <c r="C30" t="n">
-        <v>64.87244801500151</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>0</v>
-      </c>
-      <c r="R30" t="n">
+      <c r="W30" t="n">
         <v>73.65173480358939</v>
-      </c>
-      <c r="S30" t="n">
-        <v>0</v>
-      </c>
-      <c r="T30" t="n">
-        <v>0</v>
-      </c>
-      <c r="U30" t="n">
-        <v>0</v>
-      </c>
-      <c r="V30" t="n">
-        <v>0</v>
-      </c>
-      <c r="W30" t="n">
-        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -3037,61 +3037,61 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>60.56318154339093</v>
+      </c>
+      <c r="R32" t="n">
         <v>73.65173480358939</v>
       </c>
-      <c r="F32" t="n">
-        <v>63.72663443947948</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>70.48828190750086</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
         <v>73.65173480358939</v>
       </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>73.65173480358939</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3107,10 +3107,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>64.87244801500151</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>73.65173480358939</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3161,7 +3161,7 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>64.8724480150015</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -3170,13 +3170,13 @@
         <v>73.65173480358939</v>
       </c>
       <c r="W33" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y33" t="n">
         <v>73.65173480358939</v>
-      </c>
-      <c r="X33" t="n">
-        <v>73.65173480358939</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3268,70 +3268,70 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>61.04088041549605</v>
       </c>
       <c r="D35" t="n">
-        <v>70.14388151951978</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
         <v>73.65173480358939</v>
       </c>
-      <c r="F35" t="n">
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>2.685754023983435</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>70.48828190750086</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
         <v>73.65173480358939</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>64.07103482746055</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3347,13 +3347,13 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>64.8724480150015</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>73.65173480358939</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>73.65173480358939</v>
       </c>
       <c r="F36" t="n">
         <v>73.65173480358939</v>
@@ -3365,10 +3365,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>5.511431447382549</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>59.36101656761896</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3410,10 +3410,10 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>73.65173480358939</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>73.65173480358939</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3508,19 +3508,19 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>73.65173480358941</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>73.65173480358941</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>60.56318154339102</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>73.65173480358936</v>
       </c>
       <c r="H38" t="n">
-        <v>60.56318154339093</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>73.65173480358941</v>
+        <v>73.65173480358936</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>73.65173480358936</v>
       </c>
     </row>
     <row r="39">
@@ -3581,10 +3581,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>40.90140702593041</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>73.65173480358941</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>23.97104098907107</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -3638,19 +3638,19 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>73.65173480358936</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>73.65173480358936</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>73.65173480358936</v>
       </c>
       <c r="X39" t="n">
-        <v>73.65173480358941</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>73.65173480358941</v>
+        <v>64.87244801500148</v>
       </c>
     </row>
     <row r="40">
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>69.06984594488607</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>65.8355314256812</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3763,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>64.07103482746055</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3784,10 +3784,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>60.83672030825561</v>
+        <v>69.06984594488608</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>69.06984594488608</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3802,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>69.06984594488607</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>69.06984594488607</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3833,7 +3833,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>69.06984594488608</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3863,31 +3863,31 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>23.97104098907107</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>69.06984594488608</v>
       </c>
       <c r="S42" t="n">
-        <v>69.06984594488607</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>69.06984594488607</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>69.06984594488608</v>
       </c>
       <c r="W42" t="n">
-        <v>69.06984594488607</v>
+        <v>36.86567931918455</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>60.83672030825561</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3979,19 +3979,19 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>69.06984594488607</v>
+        <v>69.06984594488608</v>
       </c>
       <c r="D44" t="n">
-        <v>69.06984594488607</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>69.06984594488607</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>69.06984594488608</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>69.06984594488608</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4070,7 +4070,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>36.86567931918455</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4109,16 +4109,16 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>69.06984594488607</v>
+        <v>69.06984594488608</v>
       </c>
       <c r="U45" t="n">
-        <v>36.86567931918455</v>
+        <v>69.06984594488608</v>
       </c>
       <c r="V45" t="n">
-        <v>69.06984594488607</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>69.06984594488607</v>
+        <v>69.06984594488608</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>257.9518283447306</v>
+        <v>5.159036566894631</v>
       </c>
       <c r="C11" t="n">
-        <v>257.9518283447306</v>
+        <v>5.159036566894631</v>
       </c>
       <c r="D11" t="n">
-        <v>257.9518283447306</v>
+        <v>5.159036566894631</v>
       </c>
       <c r="E11" t="n">
-        <v>257.9518283447306</v>
+        <v>5.159036566894631</v>
       </c>
       <c r="F11" t="n">
-        <v>257.9518283447306</v>
+        <v>5.159036566894631</v>
       </c>
       <c r="G11" t="n">
-        <v>200.5770883432056</v>
+        <v>5.159036566894631</v>
       </c>
       <c r="H11" t="n">
-        <v>135.437737751102</v>
+        <v>5.159036566894631</v>
       </c>
       <c r="I11" t="n">
-        <v>70.2983871589983</v>
+        <v>5.159036566894631</v>
       </c>
       <c r="J11" t="n">
-        <v>5.159036566894612</v>
+        <v>5.159036566894631</v>
       </c>
       <c r="K11" t="n">
-        <v>5.159036566894612</v>
+        <v>5.159036566894631</v>
       </c>
       <c r="L11" t="n">
-        <v>57.54926638590032</v>
+        <v>57.54926638590045</v>
       </c>
       <c r="M11" t="n">
-        <v>121.3923439012211</v>
+        <v>121.3923439012215</v>
       </c>
       <c r="N11" t="n">
-        <v>185.235421416542</v>
+        <v>185.2354214165426</v>
       </c>
       <c r="O11" t="n">
-        <v>249.0784989318628</v>
+        <v>249.0784989318637</v>
       </c>
       <c r="P11" t="n">
-        <v>257.9518283447306</v>
+        <v>257.9518283447316</v>
       </c>
       <c r="Q11" t="n">
-        <v>257.9518283447306</v>
+        <v>257.9518283447316</v>
       </c>
       <c r="R11" t="n">
-        <v>257.9518283447306</v>
+        <v>257.9518283447316</v>
       </c>
       <c r="S11" t="n">
-        <v>257.9518283447306</v>
+        <v>257.9518283447316</v>
       </c>
       <c r="T11" t="n">
-        <v>257.9518283447306</v>
+        <v>257.9518283447316</v>
       </c>
       <c r="U11" t="n">
-        <v>257.9518283447306</v>
+        <v>192.8124777526276</v>
       </c>
       <c r="V11" t="n">
-        <v>257.9518283447306</v>
+        <v>127.6731271605237</v>
       </c>
       <c r="W11" t="n">
-        <v>257.9518283447306</v>
+        <v>62.53377656841974</v>
       </c>
       <c r="X11" t="n">
-        <v>257.9518283447306</v>
+        <v>62.53377656841974</v>
       </c>
       <c r="Y11" t="n">
-        <v>257.9518283447306</v>
+        <v>5.159036566894631</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>192.8124777526269</v>
+        <v>135.4377377511025</v>
       </c>
       <c r="C12" t="n">
-        <v>192.8124777526269</v>
+        <v>135.4377377511025</v>
       </c>
       <c r="D12" t="n">
-        <v>192.8124777526269</v>
+        <v>135.4377377511025</v>
       </c>
       <c r="E12" t="n">
-        <v>192.8124777526269</v>
+        <v>70.29838715899857</v>
       </c>
       <c r="F12" t="n">
-        <v>192.8124777526269</v>
+        <v>5.159036566894631</v>
       </c>
       <c r="G12" t="n">
-        <v>192.8124777526269</v>
+        <v>5.159036566894631</v>
       </c>
       <c r="H12" t="n">
-        <v>131.0033594780645</v>
+        <v>5.159036566894631</v>
       </c>
       <c r="I12" t="n">
-        <v>65.86400888596077</v>
+        <v>5.159036566894631</v>
       </c>
       <c r="J12" t="n">
-        <v>5.159036566894612</v>
+        <v>5.159036566894631</v>
       </c>
       <c r="K12" t="n">
-        <v>5.159036566894612</v>
+        <v>5.159036566894631</v>
       </c>
       <c r="L12" t="n">
-        <v>43.56930163552151</v>
+        <v>69.00211408221568</v>
       </c>
       <c r="M12" t="n">
-        <v>107.4123791508423</v>
+        <v>109.1158136799009</v>
       </c>
       <c r="N12" t="n">
-        <v>169.6604122041202</v>
+        <v>171.3638467331789</v>
       </c>
       <c r="O12" t="n">
-        <v>194.1087508294098</v>
+        <v>195.8121853584685</v>
       </c>
       <c r="P12" t="n">
-        <v>257.9518283447306</v>
+        <v>257.9518283447316</v>
       </c>
       <c r="Q12" t="n">
-        <v>257.9518283447306</v>
+        <v>232.73296654574</v>
       </c>
       <c r="R12" t="n">
-        <v>257.9518283447306</v>
+        <v>167.593615953636</v>
       </c>
       <c r="S12" t="n">
-        <v>257.9518283447306</v>
+        <v>167.593615953636</v>
       </c>
       <c r="T12" t="n">
-        <v>257.9518283447306</v>
+        <v>167.593615953636</v>
       </c>
       <c r="U12" t="n">
-        <v>257.9518283447306</v>
+        <v>135.4377377511025</v>
       </c>
       <c r="V12" t="n">
-        <v>257.9518283447306</v>
+        <v>135.4377377511025</v>
       </c>
       <c r="W12" t="n">
-        <v>257.9518283447306</v>
+        <v>135.4377377511025</v>
       </c>
       <c r="X12" t="n">
-        <v>257.9518283447306</v>
+        <v>135.4377377511025</v>
       </c>
       <c r="Y12" t="n">
-        <v>257.9518283447306</v>
+        <v>135.4377377511025</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5.159036566894612</v>
+        <v>5.159036566894631</v>
       </c>
       <c r="C13" t="n">
-        <v>5.159036566894612</v>
+        <v>5.159036566894631</v>
       </c>
       <c r="D13" t="n">
-        <v>5.159036566894612</v>
+        <v>5.159036566894631</v>
       </c>
       <c r="E13" t="n">
-        <v>5.159036566894612</v>
+        <v>5.159036566894631</v>
       </c>
       <c r="F13" t="n">
-        <v>5.159036566894612</v>
+        <v>5.159036566894631</v>
       </c>
       <c r="G13" t="n">
-        <v>5.159036566894612</v>
+        <v>5.159036566894631</v>
       </c>
       <c r="H13" t="n">
-        <v>5.159036566894612</v>
+        <v>5.159036566894631</v>
       </c>
       <c r="I13" t="n">
-        <v>5.159036566894612</v>
+        <v>5.159036566894631</v>
       </c>
       <c r="J13" t="n">
-        <v>5.159036566894612</v>
+        <v>5.159036566894631</v>
       </c>
       <c r="K13" t="n">
-        <v>5.159036566894612</v>
+        <v>5.159036566894631</v>
       </c>
       <c r="L13" t="n">
-        <v>5.159036566894612</v>
+        <v>5.159036566894631</v>
       </c>
       <c r="M13" t="n">
-        <v>5.159036566894612</v>
+        <v>5.159036566894631</v>
       </c>
       <c r="N13" t="n">
-        <v>5.159036566894612</v>
+        <v>5.159036566894631</v>
       </c>
       <c r="O13" t="n">
-        <v>5.159036566894612</v>
+        <v>5.159036566894631</v>
       </c>
       <c r="P13" t="n">
-        <v>5.159036566894612</v>
+        <v>5.159036566894631</v>
       </c>
       <c r="Q13" t="n">
-        <v>5.159036566894612</v>
+        <v>5.159036566894631</v>
       </c>
       <c r="R13" t="n">
-        <v>5.159036566894612</v>
+        <v>5.159036566894631</v>
       </c>
       <c r="S13" t="n">
-        <v>5.159036566894612</v>
+        <v>5.159036566894631</v>
       </c>
       <c r="T13" t="n">
-        <v>5.159036566894612</v>
+        <v>5.159036566894631</v>
       </c>
       <c r="U13" t="n">
-        <v>5.159036566894612</v>
+        <v>5.159036566894631</v>
       </c>
       <c r="V13" t="n">
-        <v>5.159036566894612</v>
+        <v>5.159036566894631</v>
       </c>
       <c r="W13" t="n">
-        <v>5.159036566894612</v>
+        <v>5.159036566894631</v>
       </c>
       <c r="X13" t="n">
-        <v>5.159036566894612</v>
+        <v>5.159036566894631</v>
       </c>
       <c r="Y13" t="n">
-        <v>5.159036566894612</v>
+        <v>5.159036566894631</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5.159036566894612</v>
+        <v>62.53377656841974</v>
       </c>
       <c r="C14" t="n">
-        <v>5.159036566894612</v>
+        <v>62.53377656841974</v>
       </c>
       <c r="D14" t="n">
-        <v>5.159036566894612</v>
+        <v>5.159036566894631</v>
       </c>
       <c r="E14" t="n">
-        <v>5.159036566894612</v>
+        <v>5.159036566894631</v>
       </c>
       <c r="F14" t="n">
-        <v>5.159036566894612</v>
+        <v>5.159036566894631</v>
       </c>
       <c r="G14" t="n">
-        <v>5.159036566894612</v>
+        <v>5.159036566894631</v>
       </c>
       <c r="H14" t="n">
-        <v>5.159036566894612</v>
+        <v>5.159036566894631</v>
       </c>
       <c r="I14" t="n">
-        <v>5.159036566894612</v>
+        <v>5.159036566894631</v>
       </c>
       <c r="J14" t="n">
-        <v>5.159036566894612</v>
+        <v>5.159036566894631</v>
       </c>
       <c r="K14" t="n">
-        <v>5.159036566894612</v>
+        <v>5.159036566894631</v>
       </c>
       <c r="L14" t="n">
-        <v>57.54926638590032</v>
+        <v>57.54926638590044</v>
       </c>
       <c r="M14" t="n">
-        <v>121.3923439012211</v>
+        <v>121.3923439012215</v>
       </c>
       <c r="N14" t="n">
-        <v>185.235421416542</v>
+        <v>185.2354214165426</v>
       </c>
       <c r="O14" t="n">
-        <v>249.0784989318628</v>
+        <v>249.0784989318637</v>
       </c>
       <c r="P14" t="n">
-        <v>257.9518283447306</v>
+        <v>257.9518283447316</v>
       </c>
       <c r="Q14" t="n">
-        <v>257.9518283447306</v>
+        <v>257.9518283447316</v>
       </c>
       <c r="R14" t="n">
-        <v>200.5770883432056</v>
+        <v>257.9518283447316</v>
       </c>
       <c r="S14" t="n">
-        <v>135.437737751102</v>
+        <v>257.9518283447316</v>
       </c>
       <c r="T14" t="n">
-        <v>135.437737751102</v>
+        <v>257.9518283447316</v>
       </c>
       <c r="U14" t="n">
-        <v>135.437737751102</v>
+        <v>192.8124777526276</v>
       </c>
       <c r="V14" t="n">
-        <v>135.437737751102</v>
+        <v>192.8124777526276</v>
       </c>
       <c r="W14" t="n">
-        <v>70.2983871589983</v>
+        <v>127.6731271605237</v>
       </c>
       <c r="X14" t="n">
-        <v>5.159036566894612</v>
+        <v>127.6731271605237</v>
       </c>
       <c r="Y14" t="n">
-        <v>5.159036566894612</v>
+        <v>127.6731271605237</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>200.5770883432056</v>
+        <v>102.4542653615321</v>
       </c>
       <c r="C15" t="n">
-        <v>200.5770883432056</v>
+        <v>70.29838715899857</v>
       </c>
       <c r="D15" t="n">
-        <v>200.5770883432056</v>
+        <v>5.159036566894631</v>
       </c>
       <c r="E15" t="n">
-        <v>200.5770883432056</v>
+        <v>5.159036566894631</v>
       </c>
       <c r="F15" t="n">
-        <v>200.5770883432056</v>
+        <v>5.159036566894631</v>
       </c>
       <c r="G15" t="n">
-        <v>135.437737751102</v>
+        <v>5.159036566894631</v>
       </c>
       <c r="H15" t="n">
-        <v>70.2983871589983</v>
+        <v>5.159036566894631</v>
       </c>
       <c r="I15" t="n">
-        <v>5.159036566894612</v>
+        <v>5.159036566894631</v>
       </c>
       <c r="J15" t="n">
-        <v>5.159036566894612</v>
+        <v>5.159036566894631</v>
       </c>
       <c r="K15" t="n">
-        <v>30.37187975556682</v>
+        <v>5.159036566894631</v>
       </c>
       <c r="L15" t="n">
-        <v>40.48735277337613</v>
+        <v>69.00211408221568</v>
       </c>
       <c r="M15" t="n">
-        <v>80.60105237106123</v>
+        <v>131.8607177761325</v>
       </c>
       <c r="N15" t="n">
-        <v>142.8490854243391</v>
+        <v>194.1087508294105</v>
       </c>
       <c r="O15" t="n">
-        <v>194.1087508294098</v>
+        <v>257.9518283447316</v>
       </c>
       <c r="P15" t="n">
-        <v>257.9518283447306</v>
+        <v>257.9518283447316</v>
       </c>
       <c r="Q15" t="n">
-        <v>257.9518283447306</v>
+        <v>232.73296654574</v>
       </c>
       <c r="R15" t="n">
-        <v>257.9518283447306</v>
+        <v>167.593615953636</v>
       </c>
       <c r="S15" t="n">
-        <v>257.9518283447306</v>
+        <v>167.593615953636</v>
       </c>
       <c r="T15" t="n">
-        <v>257.9518283447306</v>
+        <v>167.593615953636</v>
       </c>
       <c r="U15" t="n">
-        <v>257.9518283447306</v>
+        <v>102.4542653615321</v>
       </c>
       <c r="V15" t="n">
-        <v>257.9518283447306</v>
+        <v>102.4542653615321</v>
       </c>
       <c r="W15" t="n">
-        <v>257.9518283447306</v>
+        <v>102.4542653615321</v>
       </c>
       <c r="X15" t="n">
-        <v>257.9518283447306</v>
+        <v>102.4542653615321</v>
       </c>
       <c r="Y15" t="n">
-        <v>257.9518283447306</v>
+        <v>102.4542653615321</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5.159036566894612</v>
+        <v>5.159036566894631</v>
       </c>
       <c r="C16" t="n">
-        <v>5.159036566894612</v>
+        <v>5.159036566894631</v>
       </c>
       <c r="D16" t="n">
-        <v>5.159036566894612</v>
+        <v>5.159036566894631</v>
       </c>
       <c r="E16" t="n">
-        <v>5.159036566894612</v>
+        <v>5.159036566894631</v>
       </c>
       <c r="F16" t="n">
-        <v>5.159036566894612</v>
+        <v>5.159036566894631</v>
       </c>
       <c r="G16" t="n">
-        <v>5.159036566894612</v>
+        <v>5.159036566894631</v>
       </c>
       <c r="H16" t="n">
-        <v>5.159036566894612</v>
+        <v>5.159036566894631</v>
       </c>
       <c r="I16" t="n">
-        <v>5.159036566894612</v>
+        <v>5.159036566894631</v>
       </c>
       <c r="J16" t="n">
-        <v>5.159036566894612</v>
+        <v>5.159036566894631</v>
       </c>
       <c r="K16" t="n">
-        <v>5.159036566894612</v>
+        <v>5.159036566894631</v>
       </c>
       <c r="L16" t="n">
-        <v>5.159036566894612</v>
+        <v>5.159036566894631</v>
       </c>
       <c r="M16" t="n">
-        <v>5.159036566894612</v>
+        <v>5.159036566894631</v>
       </c>
       <c r="N16" t="n">
-        <v>5.159036566894612</v>
+        <v>5.159036566894631</v>
       </c>
       <c r="O16" t="n">
-        <v>5.159036566894612</v>
+        <v>5.159036566894631</v>
       </c>
       <c r="P16" t="n">
-        <v>5.159036566894612</v>
+        <v>5.159036566894631</v>
       </c>
       <c r="Q16" t="n">
-        <v>5.159036566894612</v>
+        <v>5.159036566894631</v>
       </c>
       <c r="R16" t="n">
-        <v>5.159036566894612</v>
+        <v>5.159036566894631</v>
       </c>
       <c r="S16" t="n">
-        <v>5.159036566894612</v>
+        <v>5.159036566894631</v>
       </c>
       <c r="T16" t="n">
-        <v>5.159036566894612</v>
+        <v>5.159036566894631</v>
       </c>
       <c r="U16" t="n">
-        <v>5.159036566894612</v>
+        <v>5.159036566894631</v>
       </c>
       <c r="V16" t="n">
-        <v>5.159036566894612</v>
+        <v>5.159036566894631</v>
       </c>
       <c r="W16" t="n">
-        <v>5.159036566894612</v>
+        <v>5.159036566894631</v>
       </c>
       <c r="X16" t="n">
-        <v>5.159036566894612</v>
+        <v>5.159036566894631</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.159036566894612</v>
+        <v>5.159036566894631</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>5.525587675590885</v>
+        <v>136.7443414666432</v>
       </c>
       <c r="C17" t="n">
-        <v>5.525587675590885</v>
+        <v>136.7443414666432</v>
       </c>
       <c r="D17" t="n">
-        <v>5.525587675590885</v>
+        <v>136.7443414666432</v>
       </c>
       <c r="E17" t="n">
-        <v>5.525587675590885</v>
+        <v>78.00599168455001</v>
       </c>
       <c r="F17" t="n">
-        <v>5.525587675590885</v>
+        <v>78.00599168455001</v>
       </c>
       <c r="G17" t="n">
-        <v>5.525587675590885</v>
+        <v>8.238470528099407</v>
       </c>
       <c r="H17" t="n">
-        <v>5.525587675590885</v>
+        <v>8.238470528099407</v>
       </c>
       <c r="I17" t="n">
-        <v>5.525587675590885</v>
+        <v>8.238470528099407</v>
       </c>
       <c r="J17" t="n">
-        <v>5.525587675590885</v>
+        <v>8.238470528099407</v>
       </c>
       <c r="K17" t="n">
-        <v>5.525587675590885</v>
+        <v>5.525587675590887</v>
       </c>
       <c r="L17" t="n">
-        <v>60.19328326694684</v>
+        <v>60.19328326694682</v>
       </c>
       <c r="M17" t="n">
         <v>128.572430752384</v>
@@ -5530,37 +5530,37 @@
         <v>196.9515782378213</v>
       </c>
       <c r="O17" t="n">
-        <v>265.3307257232585</v>
+        <v>265.3307257232586</v>
       </c>
       <c r="P17" t="n">
         <v>276.2793837795443</v>
       </c>
       <c r="Q17" t="n">
+        <v>276.2793837795443</v>
+      </c>
+      <c r="R17" t="n">
+        <v>276.2793837795443</v>
+      </c>
+      <c r="S17" t="n">
+        <v>276.2793837795443</v>
+      </c>
+      <c r="T17" t="n">
+        <v>276.2793837795443</v>
+      </c>
+      <c r="U17" t="n">
         <v>206.5118626230937</v>
       </c>
-      <c r="R17" t="n">
-        <v>136.7443414666431</v>
-      </c>
-      <c r="S17" t="n">
-        <v>66.97682031019252</v>
-      </c>
-      <c r="T17" t="n">
-        <v>5.525587675590885</v>
-      </c>
-      <c r="U17" t="n">
-        <v>5.525587675590885</v>
-      </c>
       <c r="V17" t="n">
-        <v>5.525587675590885</v>
+        <v>206.5118626230937</v>
       </c>
       <c r="W17" t="n">
-        <v>5.525587675590885</v>
+        <v>206.5118626230937</v>
       </c>
       <c r="X17" t="n">
-        <v>5.525587675590885</v>
+        <v>206.5118626230937</v>
       </c>
       <c r="Y17" t="n">
-        <v>5.525587675590885</v>
+        <v>136.7443414666432</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>276.2793837795443</v>
+        <v>42.76364759395912</v>
       </c>
       <c r="C18" t="n">
-        <v>276.2793837795443</v>
+        <v>42.76364759395912</v>
       </c>
       <c r="D18" t="n">
-        <v>276.2793837795443</v>
+        <v>42.76364759395912</v>
       </c>
       <c r="E18" t="n">
-        <v>276.2793837795443</v>
+        <v>42.76364759395912</v>
       </c>
       <c r="F18" t="n">
-        <v>274.7887739405173</v>
+        <v>42.76364759395912</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0212527840668</v>
+        <v>42.76364759395912</v>
       </c>
       <c r="H18" t="n">
-        <v>135.2537316276162</v>
+        <v>42.76364759395912</v>
       </c>
       <c r="I18" t="n">
-        <v>65.48621047116561</v>
+        <v>5.525587675590887</v>
       </c>
       <c r="J18" t="n">
-        <v>5.525587675590885</v>
+        <v>5.525587675590887</v>
       </c>
       <c r="K18" t="n">
-        <v>31.98532574146922</v>
+        <v>5.525587675590887</v>
       </c>
       <c r="L18" t="n">
-        <v>100.3644732269064</v>
+        <v>33.1945372865429</v>
       </c>
       <c r="M18" t="n">
-        <v>142.4346906575545</v>
+        <v>75.26475471719098</v>
       </c>
       <c r="N18" t="n">
-        <v>206.6910247490334</v>
+        <v>139.5210888086699</v>
       </c>
       <c r="O18" t="n">
-        <v>232.9765664708219</v>
+        <v>207.9002362941071</v>
       </c>
       <c r="P18" t="n">
         <v>276.2793837795443</v>
       </c>
       <c r="Q18" t="n">
-        <v>276.2793837795443</v>
+        <v>252.0662110633109</v>
       </c>
       <c r="R18" t="n">
-        <v>276.2793837795443</v>
+        <v>182.2986899068603</v>
       </c>
       <c r="S18" t="n">
-        <v>276.2793837795443</v>
+        <v>112.5311687504097</v>
       </c>
       <c r="T18" t="n">
-        <v>276.2793837795443</v>
+        <v>112.5311687504097</v>
       </c>
       <c r="U18" t="n">
-        <v>276.2793837795443</v>
+        <v>112.5311687504097</v>
       </c>
       <c r="V18" t="n">
-        <v>276.2793837795443</v>
+        <v>112.5311687504097</v>
       </c>
       <c r="W18" t="n">
-        <v>276.2793837795443</v>
+        <v>42.76364759395912</v>
       </c>
       <c r="X18" t="n">
-        <v>276.2793837795443</v>
+        <v>42.76364759395912</v>
       </c>
       <c r="Y18" t="n">
-        <v>276.2793837795443</v>
+        <v>42.76364759395912</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>5.525587675590885</v>
+        <v>5.525587675590887</v>
       </c>
       <c r="C19" t="n">
-        <v>5.525587675590885</v>
+        <v>5.525587675590887</v>
       </c>
       <c r="D19" t="n">
-        <v>5.525587675590885</v>
+        <v>5.525587675590887</v>
       </c>
       <c r="E19" t="n">
-        <v>5.525587675590885</v>
+        <v>5.525587675590887</v>
       </c>
       <c r="F19" t="n">
-        <v>5.525587675590885</v>
+        <v>5.525587675590887</v>
       </c>
       <c r="G19" t="n">
-        <v>5.525587675590885</v>
+        <v>5.525587675590887</v>
       </c>
       <c r="H19" t="n">
-        <v>5.525587675590885</v>
+        <v>5.525587675590887</v>
       </c>
       <c r="I19" t="n">
-        <v>5.525587675590885</v>
+        <v>5.525587675590887</v>
       </c>
       <c r="J19" t="n">
-        <v>5.525587675590885</v>
+        <v>5.525587675590887</v>
       </c>
       <c r="K19" t="n">
-        <v>5.525587675590885</v>
+        <v>5.525587675590887</v>
       </c>
       <c r="L19" t="n">
-        <v>5.525587675590885</v>
+        <v>5.525587675590887</v>
       </c>
       <c r="M19" t="n">
-        <v>5.525587675590885</v>
+        <v>5.525587675590887</v>
       </c>
       <c r="N19" t="n">
-        <v>5.525587675590885</v>
+        <v>5.525587675590887</v>
       </c>
       <c r="O19" t="n">
-        <v>5.525587675590885</v>
+        <v>5.525587675590887</v>
       </c>
       <c r="P19" t="n">
-        <v>5.525587675590885</v>
+        <v>5.525587675590887</v>
       </c>
       <c r="Q19" t="n">
-        <v>5.525587675590885</v>
+        <v>5.525587675590887</v>
       </c>
       <c r="R19" t="n">
-        <v>5.525587675590885</v>
+        <v>5.525587675590887</v>
       </c>
       <c r="S19" t="n">
-        <v>5.525587675590885</v>
+        <v>5.525587675590887</v>
       </c>
       <c r="T19" t="n">
-        <v>5.525587675590885</v>
+        <v>5.525587675590887</v>
       </c>
       <c r="U19" t="n">
-        <v>5.525587675590885</v>
+        <v>5.525587675590887</v>
       </c>
       <c r="V19" t="n">
-        <v>5.525587675590885</v>
+        <v>5.525587675590887</v>
       </c>
       <c r="W19" t="n">
-        <v>5.525587675590885</v>
+        <v>5.525587675590887</v>
       </c>
       <c r="X19" t="n">
-        <v>5.525587675590885</v>
+        <v>5.525587675590887</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.525587675590885</v>
+        <v>5.525587675590887</v>
       </c>
     </row>
     <row r="20">
@@ -5728,31 +5728,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>75.29310883204145</v>
+        <v>78.00599168454997</v>
       </c>
       <c r="C20" t="n">
-        <v>75.29310883204145</v>
+        <v>8.238470528099405</v>
       </c>
       <c r="D20" t="n">
-        <v>75.29310883204145</v>
+        <v>8.238470528099405</v>
       </c>
       <c r="E20" t="n">
-        <v>75.29310883204145</v>
+        <v>8.238470528099405</v>
       </c>
       <c r="F20" t="n">
-        <v>75.29310883204145</v>
+        <v>8.238470528099405</v>
       </c>
       <c r="G20" t="n">
-        <v>75.29310883204145</v>
+        <v>8.238470528099405</v>
       </c>
       <c r="H20" t="n">
-        <v>5.525587675590884</v>
+        <v>8.238470528099405</v>
       </c>
       <c r="I20" t="n">
-        <v>5.525587675590884</v>
+        <v>8.238470528099405</v>
       </c>
       <c r="J20" t="n">
-        <v>5.525587675590884</v>
+        <v>8.238470528099405</v>
       </c>
       <c r="K20" t="n">
         <v>5.525587675590884</v>
@@ -5776,28 +5776,28 @@
         <v>276.2793837795442</v>
       </c>
       <c r="R20" t="n">
-        <v>276.2793837795442</v>
+        <v>206.5118626230936</v>
       </c>
       <c r="S20" t="n">
-        <v>276.2793837795442</v>
+        <v>147.7735128410005</v>
       </c>
       <c r="T20" t="n">
-        <v>276.2793837795442</v>
+        <v>78.00599168454997</v>
       </c>
       <c r="U20" t="n">
-        <v>214.8281511449426</v>
+        <v>78.00599168454997</v>
       </c>
       <c r="V20" t="n">
-        <v>145.060629988492</v>
+        <v>78.00599168454997</v>
       </c>
       <c r="W20" t="n">
-        <v>75.29310883204145</v>
+        <v>78.00599168454997</v>
       </c>
       <c r="X20" t="n">
-        <v>75.29310883204145</v>
+        <v>78.00599168454997</v>
       </c>
       <c r="Y20" t="n">
-        <v>75.29310883204145</v>
+        <v>78.00599168454997</v>
       </c>
     </row>
     <row r="21">
@@ -5807,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>42.76364759395912</v>
+        <v>206.5118626230936</v>
       </c>
       <c r="C21" t="n">
-        <v>5.525587675590884</v>
+        <v>206.5118626230936</v>
       </c>
       <c r="D21" t="n">
-        <v>5.525587675590884</v>
+        <v>206.5118626230936</v>
       </c>
       <c r="E21" t="n">
-        <v>5.525587675590884</v>
+        <v>136.744341466643</v>
       </c>
       <c r="F21" t="n">
-        <v>5.525587675590884</v>
+        <v>75.29310883204145</v>
       </c>
       <c r="G21" t="n">
         <v>5.525587675590884</v>
@@ -5834,49 +5834,49 @@
         <v>5.525587675590884</v>
       </c>
       <c r="K21" t="n">
-        <v>5.525587675590884</v>
+        <v>31.98532574146922</v>
       </c>
       <c r="L21" t="n">
-        <v>73.90473516102807</v>
+        <v>75.28814305019154</v>
       </c>
       <c r="M21" t="n">
-        <v>142.2838826464653</v>
+        <v>117.3583604808396</v>
       </c>
       <c r="N21" t="n">
+        <v>181.6146945723185</v>
+      </c>
+      <c r="O21" t="n">
         <v>207.900236294107</v>
-      </c>
-      <c r="O21" t="n">
-        <v>276.2793837795442</v>
       </c>
       <c r="P21" t="n">
         <v>276.2793837795442</v>
       </c>
       <c r="Q21" t="n">
-        <v>252.0662110633108</v>
+        <v>276.2793837795442</v>
       </c>
       <c r="R21" t="n">
-        <v>182.2986899068603</v>
+        <v>276.2793837795442</v>
       </c>
       <c r="S21" t="n">
-        <v>182.2986899068603</v>
+        <v>276.2793837795442</v>
       </c>
       <c r="T21" t="n">
-        <v>182.2986899068603</v>
+        <v>206.5118626230936</v>
       </c>
       <c r="U21" t="n">
-        <v>112.5311687504097</v>
+        <v>206.5118626230936</v>
       </c>
       <c r="V21" t="n">
-        <v>42.76364759395912</v>
+        <v>206.5118626230936</v>
       </c>
       <c r="W21" t="n">
-        <v>42.76364759395912</v>
+        <v>206.5118626230936</v>
       </c>
       <c r="X21" t="n">
-        <v>42.76364759395912</v>
+        <v>206.5118626230936</v>
       </c>
       <c r="Y21" t="n">
-        <v>42.76364759395912</v>
+        <v>206.5118626230936</v>
       </c>
     </row>
     <row r="22">
@@ -5965,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>67.0670696361972</v>
+        <v>5.892138784287152</v>
       </c>
       <c r="C23" t="n">
-        <v>67.0670696361972</v>
+        <v>5.892138784287152</v>
       </c>
       <c r="D23" t="n">
-        <v>67.0670696361972</v>
+        <v>5.892138784287152</v>
       </c>
       <c r="E23" t="n">
-        <v>67.0670696361972</v>
+        <v>5.892138784287152</v>
       </c>
       <c r="F23" t="n">
-        <v>67.0670696361972</v>
+        <v>5.892138784287152</v>
       </c>
       <c r="G23" t="n">
-        <v>67.0670696361972</v>
+        <v>5.892138784287152</v>
       </c>
       <c r="H23" t="n">
-        <v>67.0670696361972</v>
+        <v>5.892138784287152</v>
       </c>
       <c r="I23" t="n">
-        <v>8.605021636795673</v>
+        <v>5.892138784287152</v>
       </c>
       <c r="J23" t="n">
-        <v>8.605021636795673</v>
+        <v>5.892138784287152</v>
       </c>
       <c r="K23" t="n">
         <v>5.892138784287152</v>
@@ -6010,31 +6010,31 @@
         <v>290.2541447985893</v>
       </c>
       <c r="Q23" t="n">
-        <v>290.2541447985893</v>
+        <v>219.053860043538</v>
       </c>
       <c r="R23" t="n">
-        <v>290.2541447985893</v>
+        <v>144.6581683227406</v>
       </c>
       <c r="S23" t="n">
-        <v>290.2541447985893</v>
+        <v>70.26247660194321</v>
       </c>
       <c r="T23" t="n">
-        <v>215.8584530777919</v>
+        <v>70.26247660194321</v>
       </c>
       <c r="U23" t="n">
-        <v>215.8584530777919</v>
+        <v>70.26247660194321</v>
       </c>
       <c r="V23" t="n">
-        <v>215.8584530777919</v>
+        <v>5.892138784287152</v>
       </c>
       <c r="W23" t="n">
-        <v>215.8584530777919</v>
+        <v>5.892138784287152</v>
       </c>
       <c r="X23" t="n">
-        <v>141.4627613569946</v>
+        <v>5.892138784287152</v>
       </c>
       <c r="Y23" t="n">
-        <v>67.0670696361972</v>
+        <v>5.892138784287152</v>
       </c>
     </row>
     <row r="24">
@@ -6044,46 +6044,46 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>214.6441450214566</v>
+        <v>5.892138784287152</v>
       </c>
       <c r="C24" t="n">
-        <v>214.6441450214566</v>
+        <v>5.892138784287152</v>
       </c>
       <c r="D24" t="n">
-        <v>214.6441450214566</v>
+        <v>5.892138784287152</v>
       </c>
       <c r="E24" t="n">
-        <v>214.6441450214566</v>
+        <v>5.892138784287152</v>
       </c>
       <c r="F24" t="n">
-        <v>214.6441450214566</v>
+        <v>5.892138784287152</v>
       </c>
       <c r="G24" t="n">
-        <v>140.2484533006592</v>
+        <v>5.892138784287152</v>
       </c>
       <c r="H24" t="n">
-        <v>65.85276157986186</v>
+        <v>5.892138784287152</v>
       </c>
       <c r="I24" t="n">
-        <v>65.85276157986186</v>
+        <v>5.892138784287152</v>
       </c>
       <c r="J24" t="n">
         <v>5.892138784287152</v>
       </c>
       <c r="K24" t="n">
-        <v>32.35187685016548</v>
+        <v>5.892138784287152</v>
       </c>
       <c r="L24" t="n">
-        <v>105.267094305719</v>
+        <v>78.80735623984066</v>
       </c>
       <c r="M24" t="n">
-        <v>147.3373117363671</v>
+        <v>151.7225736953941</v>
       </c>
       <c r="N24" t="n">
-        <v>211.593645827846</v>
+        <v>224.6377911509476</v>
       </c>
       <c r="O24" t="n">
-        <v>237.8791875496345</v>
+        <v>294.6069392143576</v>
       </c>
       <c r="P24" t="n">
         <v>294.6069392143576</v>
@@ -6095,25 +6095,25 @@
         <v>294.6069392143576</v>
       </c>
       <c r="S24" t="n">
-        <v>289.039836742254</v>
+        <v>294.6069392143576</v>
       </c>
       <c r="T24" t="n">
-        <v>214.6441450214566</v>
+        <v>294.6069392143576</v>
       </c>
       <c r="U24" t="n">
-        <v>214.6441450214566</v>
+        <v>229.0792139466793</v>
       </c>
       <c r="V24" t="n">
-        <v>214.6441450214566</v>
+        <v>154.6835222258819</v>
       </c>
       <c r="W24" t="n">
-        <v>214.6441450214566</v>
+        <v>80.28783050508453</v>
       </c>
       <c r="X24" t="n">
-        <v>214.6441450214566</v>
+        <v>80.28783050508453</v>
       </c>
       <c r="Y24" t="n">
-        <v>214.6441450214566</v>
+        <v>5.892138784287152</v>
       </c>
     </row>
     <row r="25">
@@ -6217,7 +6217,7 @@
         <v>80.28783050508453</v>
       </c>
       <c r="G26" t="n">
-        <v>80.28783050508453</v>
+        <v>5.892138784287152</v>
       </c>
       <c r="H26" t="n">
         <v>5.892138784287152</v>
@@ -6250,28 +6250,28 @@
         <v>290.2541447985893</v>
       </c>
       <c r="R26" t="n">
+        <v>290.2541447985893</v>
+      </c>
+      <c r="S26" t="n">
+        <v>290.2541447985893</v>
+      </c>
+      <c r="T26" t="n">
+        <v>290.2541447985893</v>
+      </c>
+      <c r="U26" t="n">
         <v>215.8584530777919</v>
       </c>
-      <c r="S26" t="n">
+      <c r="V26" t="n">
         <v>215.8584530777919</v>
       </c>
-      <c r="T26" t="n">
+      <c r="W26" t="n">
         <v>215.8584530777919</v>
       </c>
-      <c r="U26" t="n">
-        <v>141.4627613569946</v>
-      </c>
-      <c r="V26" t="n">
-        <v>141.4627613569946</v>
-      </c>
-      <c r="W26" t="n">
-        <v>141.4627613569946</v>
-      </c>
       <c r="X26" t="n">
-        <v>141.4627613569946</v>
+        <v>154.6835222258819</v>
       </c>
       <c r="Y26" t="n">
-        <v>141.4627613569946</v>
+        <v>80.28783050508453</v>
       </c>
     </row>
     <row r="27">
@@ -6317,37 +6317,37 @@
         <v>151.7225736953941</v>
       </c>
       <c r="N27" t="n">
-        <v>221.6917217588041</v>
+        <v>215.9789077868731</v>
       </c>
       <c r="O27" t="n">
-        <v>294.6069392143576</v>
+        <v>288.8941252424266</v>
       </c>
       <c r="P27" t="n">
         <v>294.6069392143576</v>
       </c>
       <c r="Q27" t="n">
-        <v>294.6069392143576</v>
+        <v>270.3937664981241</v>
       </c>
       <c r="R27" t="n">
-        <v>294.6069392143576</v>
+        <v>195.9980747773268</v>
       </c>
       <c r="S27" t="n">
-        <v>294.6069392143576</v>
+        <v>195.9980747773268</v>
       </c>
       <c r="T27" t="n">
-        <v>294.6069392143576</v>
+        <v>195.9980747773268</v>
       </c>
       <c r="U27" t="n">
-        <v>294.6069392143576</v>
+        <v>154.6835222258819</v>
       </c>
       <c r="V27" t="n">
-        <v>229.0792139466793</v>
+        <v>154.6835222258819</v>
       </c>
       <c r="W27" t="n">
-        <v>154.6835222258819</v>
+        <v>80.28783050508453</v>
       </c>
       <c r="X27" t="n">
-        <v>80.28783050508453</v>
+        <v>5.892138784287152</v>
       </c>
       <c r="Y27" t="n">
         <v>5.892138784287152</v>
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>67.0670696361972</v>
+        <v>215.8584530777919</v>
       </c>
       <c r="C29" t="n">
-        <v>67.0670696361972</v>
+        <v>141.4627613569946</v>
       </c>
       <c r="D29" t="n">
-        <v>67.0670696361972</v>
+        <v>141.4627613569946</v>
       </c>
       <c r="E29" t="n">
-        <v>67.0670696361972</v>
+        <v>141.4627613569946</v>
       </c>
       <c r="F29" t="n">
-        <v>67.0670696361972</v>
+        <v>80.28783050508453</v>
       </c>
       <c r="G29" t="n">
-        <v>67.0670696361972</v>
+        <v>5.892138784287152</v>
       </c>
       <c r="H29" t="n">
-        <v>67.0670696361972</v>
+        <v>5.892138784287152</v>
       </c>
       <c r="I29" t="n">
-        <v>67.0670696361972</v>
+        <v>5.892138784287152</v>
       </c>
       <c r="J29" t="n">
         <v>5.892138784287152</v>
@@ -6493,22 +6493,22 @@
         <v>290.2541447985893</v>
       </c>
       <c r="T29" t="n">
+        <v>290.2541447985893</v>
+      </c>
+      <c r="U29" t="n">
+        <v>290.2541447985893</v>
+      </c>
+      <c r="V29" t="n">
         <v>215.8584530777919</v>
       </c>
-      <c r="U29" t="n">
-        <v>141.4627613569946</v>
-      </c>
-      <c r="V29" t="n">
-        <v>141.4627613569946</v>
-      </c>
       <c r="W29" t="n">
-        <v>141.4627613569946</v>
+        <v>215.8584530777919</v>
       </c>
       <c r="X29" t="n">
-        <v>141.4627613569946</v>
+        <v>215.8584530777919</v>
       </c>
       <c r="Y29" t="n">
-        <v>67.0670696361972</v>
+        <v>215.8584530777919</v>
       </c>
     </row>
     <row r="30">
@@ -6518,7 +6518,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>71.41986405196545</v>
+        <v>5.892138784287152</v>
       </c>
       <c r="C30" t="n">
         <v>5.892138784287152</v>
@@ -6548,13 +6548,13 @@
         <v>5.892138784287152</v>
       </c>
       <c r="L30" t="n">
-        <v>78.80735623984066</v>
+        <v>17.68421584088532</v>
       </c>
       <c r="M30" t="n">
-        <v>120.8775736704887</v>
+        <v>84.52017021177167</v>
       </c>
       <c r="N30" t="n">
-        <v>185.1339077619677</v>
+        <v>148.7765043032506</v>
       </c>
       <c r="O30" t="n">
         <v>221.6917217588041</v>
@@ -6566,28 +6566,28 @@
         <v>294.6069392143576</v>
       </c>
       <c r="R30" t="n">
-        <v>220.2112474935602</v>
+        <v>294.6069392143576</v>
       </c>
       <c r="S30" t="n">
-        <v>220.2112474935602</v>
+        <v>294.6069392143576</v>
       </c>
       <c r="T30" t="n">
-        <v>220.2112474935602</v>
+        <v>294.6069392143576</v>
       </c>
       <c r="U30" t="n">
-        <v>220.2112474935602</v>
+        <v>229.0792139466793</v>
       </c>
       <c r="V30" t="n">
-        <v>220.2112474935602</v>
+        <v>154.6835222258819</v>
       </c>
       <c r="W30" t="n">
-        <v>220.2112474935602</v>
+        <v>80.28783050508453</v>
       </c>
       <c r="X30" t="n">
-        <v>220.2112474935602</v>
+        <v>80.28783050508453</v>
       </c>
       <c r="Y30" t="n">
-        <v>145.8155557727628</v>
+        <v>5.892138784287152</v>
       </c>
     </row>
     <row r="31">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>144.6581683227406</v>
+        <v>5.892138784287152</v>
       </c>
       <c r="C32" t="n">
-        <v>144.6581683227406</v>
+        <v>5.892138784287152</v>
       </c>
       <c r="D32" t="n">
-        <v>144.6581683227406</v>
+        <v>5.892138784287152</v>
       </c>
       <c r="E32" t="n">
-        <v>70.26247660194321</v>
+        <v>5.892138784287152</v>
       </c>
       <c r="F32" t="n">
         <v>5.892138784287152</v>
@@ -6721,31 +6721,31 @@
         <v>290.2541447985893</v>
       </c>
       <c r="Q32" t="n">
-        <v>219.053860043538</v>
+        <v>229.0792139466793</v>
       </c>
       <c r="R32" t="n">
-        <v>219.053860043538</v>
+        <v>154.6835222258819</v>
       </c>
       <c r="S32" t="n">
-        <v>219.053860043538</v>
+        <v>154.6835222258819</v>
       </c>
       <c r="T32" t="n">
-        <v>144.6581683227406</v>
+        <v>154.6835222258819</v>
       </c>
       <c r="U32" t="n">
-        <v>144.6581683227406</v>
+        <v>154.6835222258819</v>
       </c>
       <c r="V32" t="n">
-        <v>144.6581683227406</v>
+        <v>80.28783050508453</v>
       </c>
       <c r="W32" t="n">
-        <v>144.6581683227406</v>
+        <v>5.892138784287152</v>
       </c>
       <c r="X32" t="n">
-        <v>144.6581683227406</v>
+        <v>5.892138784287152</v>
       </c>
       <c r="Y32" t="n">
-        <v>144.6581683227406</v>
+        <v>5.892138784287152</v>
       </c>
     </row>
     <row r="33">
@@ -6755,7 +6755,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>5.892138784287152</v>
+        <v>80.28783050508453</v>
       </c>
       <c r="C33" t="n">
         <v>5.892138784287152</v>
@@ -6782,13 +6782,13 @@
         <v>5.892138784287152</v>
       </c>
       <c r="K33" t="n">
-        <v>5.892138784287152</v>
+        <v>32.35187685016548</v>
       </c>
       <c r="L33" t="n">
-        <v>78.80735623984066</v>
+        <v>105.267094305719</v>
       </c>
       <c r="M33" t="n">
-        <v>151.7225736953941</v>
+        <v>148.7765043032506</v>
       </c>
       <c r="N33" t="n">
         <v>221.6917217588041</v>
@@ -6809,22 +6809,22 @@
         <v>294.6069392143576</v>
       </c>
       <c r="T33" t="n">
-        <v>294.6069392143576</v>
+        <v>229.0792139466793</v>
       </c>
       <c r="U33" t="n">
-        <v>294.6069392143576</v>
+        <v>229.0792139466793</v>
       </c>
       <c r="V33" t="n">
-        <v>220.2112474935602</v>
+        <v>154.6835222258819</v>
       </c>
       <c r="W33" t="n">
-        <v>145.8155557727628</v>
+        <v>154.6835222258819</v>
       </c>
       <c r="X33" t="n">
-        <v>71.41986405196545</v>
+        <v>154.6835222258819</v>
       </c>
       <c r="Y33" t="n">
-        <v>71.41986405196545</v>
+        <v>80.28783050508453</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>294.6069392143576</v>
+        <v>5.892138784287152</v>
       </c>
       <c r="C34" t="n">
-        <v>294.6069392143576</v>
+        <v>5.892138784287152</v>
       </c>
       <c r="D34" t="n">
-        <v>294.6069392143576</v>
+        <v>5.892138784287152</v>
       </c>
       <c r="E34" t="n">
-        <v>294.6069392143576</v>
+        <v>5.892138784287152</v>
       </c>
       <c r="F34" t="n">
-        <v>294.6069392143576</v>
+        <v>5.892138784287152</v>
       </c>
       <c r="G34" t="n">
-        <v>294.6069392143576</v>
+        <v>5.892138784287152</v>
       </c>
       <c r="H34" t="n">
-        <v>294.6069392143576</v>
+        <v>5.892138784287152</v>
       </c>
       <c r="I34" t="n">
-        <v>294.6069392143576</v>
+        <v>5.892138784287152</v>
       </c>
       <c r="J34" t="n">
-        <v>294.6069392143576</v>
+        <v>5.892138784287152</v>
       </c>
       <c r="K34" t="n">
-        <v>294.6069392143576</v>
+        <v>5.892138784287152</v>
       </c>
       <c r="L34" t="n">
-        <v>294.6069392143576</v>
+        <v>5.892138784287152</v>
       </c>
       <c r="M34" t="n">
-        <v>294.6069392143576</v>
+        <v>5.892138784287152</v>
       </c>
       <c r="N34" t="n">
-        <v>294.6069392143576</v>
+        <v>5.892138784287152</v>
       </c>
       <c r="O34" t="n">
-        <v>294.6069392143576</v>
+        <v>5.892138784287152</v>
       </c>
       <c r="P34" t="n">
-        <v>294.6069392143576</v>
+        <v>5.892138784287152</v>
       </c>
       <c r="Q34" t="n">
-        <v>294.6069392143576</v>
+        <v>5.892138784287152</v>
       </c>
       <c r="R34" t="n">
-        <v>294.6069392143576</v>
+        <v>5.892138784287152</v>
       </c>
       <c r="S34" t="n">
-        <v>294.6069392143576</v>
+        <v>5.892138784287152</v>
       </c>
       <c r="T34" t="n">
-        <v>294.6069392143576</v>
+        <v>5.892138784287152</v>
       </c>
       <c r="U34" t="n">
-        <v>294.6069392143576</v>
+        <v>5.892138784287152</v>
       </c>
       <c r="V34" t="n">
-        <v>294.6069392143576</v>
+        <v>5.892138784287152</v>
       </c>
       <c r="W34" t="n">
-        <v>294.6069392143576</v>
+        <v>5.892138784287152</v>
       </c>
       <c r="X34" t="n">
-        <v>294.6069392143576</v>
+        <v>5.892138784287152</v>
       </c>
       <c r="Y34" t="n">
-        <v>294.6069392143576</v>
+        <v>5.892138784287152</v>
       </c>
     </row>
     <row r="35">
@@ -6913,31 +6913,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>290.2541447985893</v>
+        <v>144.6581683227406</v>
       </c>
       <c r="C35" t="n">
-        <v>290.2541447985893</v>
+        <v>83.00071335759304</v>
       </c>
       <c r="D35" t="n">
-        <v>219.4017392233168</v>
+        <v>83.00071335759304</v>
       </c>
       <c r="E35" t="n">
-        <v>145.0060475025194</v>
+        <v>83.00071335759304</v>
       </c>
       <c r="F35" t="n">
-        <v>70.61035578172206</v>
+        <v>83.00071335759304</v>
       </c>
       <c r="G35" t="n">
-        <v>70.61035578172206</v>
+        <v>8.605021636795673</v>
       </c>
       <c r="H35" t="n">
-        <v>70.61035578172206</v>
+        <v>8.605021636795673</v>
       </c>
       <c r="I35" t="n">
-        <v>70.61035578172206</v>
+        <v>8.605021636795673</v>
       </c>
       <c r="J35" t="n">
-        <v>5.892138784287152</v>
+        <v>8.605021636795673</v>
       </c>
       <c r="K35" t="n">
         <v>5.892138784287152</v>
@@ -6958,31 +6958,31 @@
         <v>290.2541447985893</v>
       </c>
       <c r="Q35" t="n">
-        <v>290.2541447985893</v>
+        <v>219.053860043538</v>
       </c>
       <c r="R35" t="n">
-        <v>290.2541447985893</v>
+        <v>219.053860043538</v>
       </c>
       <c r="S35" t="n">
-        <v>290.2541447985893</v>
+        <v>219.053860043538</v>
       </c>
       <c r="T35" t="n">
-        <v>290.2541447985893</v>
+        <v>219.053860043538</v>
       </c>
       <c r="U35" t="n">
-        <v>290.2541447985893</v>
+        <v>219.053860043538</v>
       </c>
       <c r="V35" t="n">
-        <v>290.2541447985893</v>
+        <v>219.053860043538</v>
       </c>
       <c r="W35" t="n">
-        <v>290.2541447985893</v>
+        <v>219.053860043538</v>
       </c>
       <c r="X35" t="n">
-        <v>290.2541447985893</v>
+        <v>144.6581683227406</v>
       </c>
       <c r="Y35" t="n">
-        <v>290.2541447985893</v>
+        <v>144.6581683227406</v>
       </c>
     </row>
     <row r="36">
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>145.8155557727628</v>
+        <v>294.6069392143576</v>
       </c>
       <c r="C36" t="n">
-        <v>145.8155557727628</v>
+        <v>229.0792139466793</v>
       </c>
       <c r="D36" t="n">
-        <v>145.8155557727628</v>
+        <v>154.6835222258819</v>
       </c>
       <c r="E36" t="n">
-        <v>145.8155557727628</v>
+        <v>80.28783050508453</v>
       </c>
       <c r="F36" t="n">
-        <v>71.41986405196545</v>
+        <v>5.892138784287152</v>
       </c>
       <c r="G36" t="n">
-        <v>71.41986405196545</v>
+        <v>5.892138784287152</v>
       </c>
       <c r="H36" t="n">
-        <v>71.41986405196545</v>
+        <v>5.892138784287152</v>
       </c>
       <c r="I36" t="n">
-        <v>65.85276157986186</v>
+        <v>5.892138784287152</v>
       </c>
       <c r="J36" t="n">
         <v>5.892138784287152</v>
@@ -7058,10 +7058,10 @@
         <v>294.6069392143576</v>
       </c>
       <c r="X36" t="n">
-        <v>220.2112474935602</v>
+        <v>294.6069392143576</v>
       </c>
       <c r="Y36" t="n">
-        <v>145.8155557727628</v>
+        <v>294.6069392143576</v>
       </c>
     </row>
     <row r="37">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>215.858453077792</v>
+        <v>141.4627613569946</v>
       </c>
       <c r="C38" t="n">
-        <v>215.858453077792</v>
+        <v>141.4627613569946</v>
       </c>
       <c r="D38" t="n">
         <v>141.4627613569946</v>
       </c>
       <c r="E38" t="n">
-        <v>67.06706963619719</v>
+        <v>141.4627613569946</v>
       </c>
       <c r="F38" t="n">
-        <v>67.06706963619719</v>
+        <v>80.2878305050845</v>
       </c>
       <c r="G38" t="n">
-        <v>67.06706963619719</v>
+        <v>5.892138784287149</v>
       </c>
       <c r="H38" t="n">
-        <v>5.892138784287153</v>
+        <v>5.892138784287149</v>
       </c>
       <c r="I38" t="n">
-        <v>5.892138784287153</v>
+        <v>5.892138784287149</v>
       </c>
       <c r="J38" t="n">
-        <v>5.892138784287153</v>
+        <v>5.892138784287149</v>
       </c>
       <c r="K38" t="n">
-        <v>5.892138784287153</v>
+        <v>5.892138784287149</v>
       </c>
       <c r="L38" t="n">
         <v>60.55983437564311</v>
@@ -7192,19 +7192,19 @@
         <v>279.3054867423036</v>
       </c>
       <c r="P38" t="n">
-        <v>290.2541447985894</v>
+        <v>290.2541447985893</v>
       </c>
       <c r="Q38" t="n">
-        <v>290.2541447985894</v>
+        <v>290.2541447985893</v>
       </c>
       <c r="R38" t="n">
-        <v>290.2541447985894</v>
+        <v>290.2541447985893</v>
       </c>
       <c r="S38" t="n">
-        <v>290.2541447985894</v>
+        <v>290.2541447985893</v>
       </c>
       <c r="T38" t="n">
-        <v>290.2541447985894</v>
+        <v>290.2541447985893</v>
       </c>
       <c r="U38" t="n">
         <v>215.858453077792</v>
@@ -7219,7 +7219,7 @@
         <v>215.858453077792</v>
       </c>
       <c r="Y38" t="n">
-        <v>215.858453077792</v>
+        <v>141.4627613569946</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>80.28783050508454</v>
+        <v>5.892138784287149</v>
       </c>
       <c r="C39" t="n">
-        <v>5.892138784287153</v>
+        <v>5.892138784287149</v>
       </c>
       <c r="D39" t="n">
-        <v>5.892138784287153</v>
+        <v>5.892138784287149</v>
       </c>
       <c r="E39" t="n">
-        <v>5.892138784287153</v>
+        <v>5.892138784287149</v>
       </c>
       <c r="F39" t="n">
-        <v>5.892138784287153</v>
+        <v>5.892138784287149</v>
       </c>
       <c r="G39" t="n">
-        <v>5.892138784287153</v>
+        <v>5.892138784287149</v>
       </c>
       <c r="H39" t="n">
-        <v>5.892138784287153</v>
+        <v>5.892138784287149</v>
       </c>
       <c r="I39" t="n">
-        <v>5.892138784287153</v>
+        <v>5.892138784287149</v>
       </c>
       <c r="J39" t="n">
-        <v>5.892138784287153</v>
+        <v>5.892138784287149</v>
       </c>
       <c r="K39" t="n">
-        <v>5.892138784287153</v>
+        <v>5.892138784287149</v>
       </c>
       <c r="L39" t="n">
-        <v>78.80735623984067</v>
+        <v>78.80735623984063</v>
       </c>
       <c r="M39" t="n">
-        <v>151.7225736953942</v>
+        <v>120.8775736704887</v>
       </c>
       <c r="N39" t="n">
-        <v>221.6917217588041</v>
+        <v>185.1339077619676</v>
       </c>
       <c r="O39" t="n">
-        <v>294.6069392143576</v>
+        <v>221.691721758804</v>
       </c>
       <c r="P39" t="n">
-        <v>294.6069392143576</v>
+        <v>294.6069392143575</v>
       </c>
       <c r="Q39" t="n">
-        <v>270.3937664981242</v>
+        <v>294.6069392143575</v>
       </c>
       <c r="R39" t="n">
-        <v>270.3937664981242</v>
+        <v>294.6069392143575</v>
       </c>
       <c r="S39" t="n">
-        <v>270.3937664981242</v>
+        <v>294.6069392143575</v>
       </c>
       <c r="T39" t="n">
-        <v>270.3937664981242</v>
+        <v>294.6069392143575</v>
       </c>
       <c r="U39" t="n">
-        <v>270.3937664981242</v>
+        <v>220.2112474935601</v>
       </c>
       <c r="V39" t="n">
-        <v>270.3937664981242</v>
+        <v>145.8155557727628</v>
       </c>
       <c r="W39" t="n">
-        <v>270.3937664981242</v>
+        <v>71.41986405196542</v>
       </c>
       <c r="X39" t="n">
-        <v>195.9980747773268</v>
+        <v>71.41986405196542</v>
       </c>
       <c r="Y39" t="n">
-        <v>121.6023830565294</v>
+        <v>5.892138784287149</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>294.6069392143576</v>
+        <v>5.892138784287149</v>
       </c>
       <c r="C40" t="n">
-        <v>294.6069392143576</v>
+        <v>5.892138784287149</v>
       </c>
       <c r="D40" t="n">
-        <v>294.6069392143576</v>
+        <v>5.892138784287149</v>
       </c>
       <c r="E40" t="n">
-        <v>294.6069392143576</v>
+        <v>5.892138784287149</v>
       </c>
       <c r="F40" t="n">
-        <v>294.6069392143576</v>
+        <v>5.892138784287149</v>
       </c>
       <c r="G40" t="n">
-        <v>294.6069392143576</v>
+        <v>5.892138784287149</v>
       </c>
       <c r="H40" t="n">
-        <v>294.6069392143576</v>
+        <v>5.892138784287149</v>
       </c>
       <c r="I40" t="n">
-        <v>294.6069392143576</v>
+        <v>5.892138784287149</v>
       </c>
       <c r="J40" t="n">
-        <v>294.6069392143576</v>
+        <v>5.892138784287149</v>
       </c>
       <c r="K40" t="n">
-        <v>294.6069392143576</v>
+        <v>5.892138784287149</v>
       </c>
       <c r="L40" t="n">
-        <v>294.6069392143576</v>
+        <v>5.892138784287149</v>
       </c>
       <c r="M40" t="n">
-        <v>294.6069392143576</v>
+        <v>5.892138784287149</v>
       </c>
       <c r="N40" t="n">
-        <v>294.6069392143576</v>
+        <v>5.892138784287149</v>
       </c>
       <c r="O40" t="n">
-        <v>294.6069392143576</v>
+        <v>5.892138784287149</v>
       </c>
       <c r="P40" t="n">
-        <v>294.6069392143576</v>
+        <v>5.892138784287149</v>
       </c>
       <c r="Q40" t="n">
-        <v>294.6069392143576</v>
+        <v>5.892138784287149</v>
       </c>
       <c r="R40" t="n">
-        <v>294.6069392143576</v>
+        <v>5.892138784287149</v>
       </c>
       <c r="S40" t="n">
-        <v>294.6069392143576</v>
+        <v>5.892138784287149</v>
       </c>
       <c r="T40" t="n">
-        <v>294.6069392143576</v>
+        <v>5.892138784287149</v>
       </c>
       <c r="U40" t="n">
-        <v>294.6069392143576</v>
+        <v>5.892138784287149</v>
       </c>
       <c r="V40" t="n">
-        <v>294.6069392143576</v>
+        <v>5.892138784287149</v>
       </c>
       <c r="W40" t="n">
-        <v>294.6069392143576</v>
+        <v>5.892138784287149</v>
       </c>
       <c r="X40" t="n">
-        <v>294.6069392143576</v>
+        <v>5.892138784287149</v>
       </c>
       <c r="Y40" t="n">
-        <v>294.6069392143576</v>
+        <v>5.892138784287149</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>75.29310883204147</v>
+        <v>136.7443414666432</v>
       </c>
       <c r="C41" t="n">
-        <v>5.525587675590885</v>
+        <v>136.7443414666432</v>
       </c>
       <c r="D41" t="n">
-        <v>5.525587675590885</v>
+        <v>136.7443414666432</v>
       </c>
       <c r="E41" t="n">
-        <v>5.525587675590885</v>
+        <v>136.7443414666432</v>
       </c>
       <c r="F41" t="n">
-        <v>5.525587675590885</v>
+        <v>136.7443414666432</v>
       </c>
       <c r="G41" t="n">
-        <v>5.525587675590885</v>
+        <v>70.24380467302579</v>
       </c>
       <c r="H41" t="n">
-        <v>5.525587675590885</v>
+        <v>70.24380467302579</v>
       </c>
       <c r="I41" t="n">
-        <v>5.525587675590885</v>
+        <v>70.24380467302579</v>
       </c>
       <c r="J41" t="n">
-        <v>5.525587675590885</v>
+        <v>5.525587675590887</v>
       </c>
       <c r="K41" t="n">
-        <v>5.525587675590885</v>
+        <v>5.525587675590887</v>
       </c>
       <c r="L41" t="n">
-        <v>60.19328326694688</v>
+        <v>60.19328326694682</v>
       </c>
       <c r="M41" t="n">
-        <v>128.5724307523841</v>
+        <v>128.572430752384</v>
       </c>
       <c r="N41" t="n">
         <v>196.9515782378213</v>
       </c>
       <c r="O41" t="n">
-        <v>265.3307257232585</v>
+        <v>265.3307257232586</v>
       </c>
       <c r="P41" t="n">
         <v>276.2793837795443</v>
       </c>
       <c r="Q41" t="n">
-        <v>214.8281511449426</v>
+        <v>206.5118626230937</v>
       </c>
       <c r="R41" t="n">
-        <v>214.8281511449426</v>
+        <v>136.7443414666432</v>
       </c>
       <c r="S41" t="n">
-        <v>214.8281511449426</v>
+        <v>136.7443414666432</v>
       </c>
       <c r="T41" t="n">
-        <v>214.8281511449426</v>
+        <v>136.7443414666432</v>
       </c>
       <c r="U41" t="n">
-        <v>214.8281511449426</v>
+        <v>136.7443414666432</v>
       </c>
       <c r="V41" t="n">
-        <v>214.8281511449426</v>
+        <v>136.7443414666432</v>
       </c>
       <c r="W41" t="n">
-        <v>145.0606299884921</v>
+        <v>136.7443414666432</v>
       </c>
       <c r="X41" t="n">
-        <v>145.0606299884921</v>
+        <v>136.7443414666432</v>
       </c>
       <c r="Y41" t="n">
-        <v>75.29310883204147</v>
+        <v>136.7443414666432</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>5.525587675590885</v>
+        <v>75.29310883204148</v>
       </c>
       <c r="C42" t="n">
-        <v>5.525587675590885</v>
+        <v>75.29310883204148</v>
       </c>
       <c r="D42" t="n">
-        <v>5.525587675590885</v>
+        <v>75.29310883204148</v>
       </c>
       <c r="E42" t="n">
-        <v>5.525587675590885</v>
+        <v>75.29310883204148</v>
       </c>
       <c r="F42" t="n">
-        <v>5.525587675590885</v>
+        <v>75.29310883204148</v>
       </c>
       <c r="G42" t="n">
-        <v>5.525587675590885</v>
+        <v>5.525587675590887</v>
       </c>
       <c r="H42" t="n">
-        <v>5.525587675590885</v>
+        <v>5.525587675590887</v>
       </c>
       <c r="I42" t="n">
-        <v>5.525587675590885</v>
+        <v>5.525587675590887</v>
       </c>
       <c r="J42" t="n">
-        <v>5.525587675590885</v>
+        <v>5.525587675590887</v>
       </c>
       <c r="K42" t="n">
-        <v>5.525587675590885</v>
+        <v>31.98532574146922</v>
       </c>
       <c r="L42" t="n">
-        <v>73.90473516102809</v>
+        <v>75.28814305019162</v>
       </c>
       <c r="M42" t="n">
-        <v>142.2838826464653</v>
+        <v>117.3583604808397</v>
       </c>
       <c r="N42" t="n">
+        <v>181.6146945723186</v>
+      </c>
+      <c r="O42" t="n">
         <v>207.9002362941071</v>
-      </c>
-      <c r="O42" t="n">
-        <v>276.2793837795443</v>
       </c>
       <c r="P42" t="n">
         <v>276.2793837795443</v>
       </c>
       <c r="Q42" t="n">
-        <v>276.2793837795443</v>
+        <v>252.0662110633109</v>
       </c>
       <c r="R42" t="n">
-        <v>276.2793837795443</v>
+        <v>182.2986899068603</v>
       </c>
       <c r="S42" t="n">
-        <v>206.5118626230937</v>
+        <v>182.2986899068603</v>
       </c>
       <c r="T42" t="n">
-        <v>206.5118626230937</v>
+        <v>182.2986899068603</v>
       </c>
       <c r="U42" t="n">
-        <v>136.7443414666431</v>
+        <v>182.2986899068603</v>
       </c>
       <c r="V42" t="n">
-        <v>136.7443414666431</v>
+        <v>112.5311687504097</v>
       </c>
       <c r="W42" t="n">
-        <v>66.97682031019252</v>
+        <v>75.29310883204148</v>
       </c>
       <c r="X42" t="n">
-        <v>66.97682031019252</v>
+        <v>75.29310883204148</v>
       </c>
       <c r="Y42" t="n">
-        <v>5.525587675590885</v>
+        <v>75.29310883204148</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>5.525587675590885</v>
+        <v>5.525587675590887</v>
       </c>
       <c r="C43" t="n">
-        <v>5.525587675590885</v>
+        <v>5.525587675590887</v>
       </c>
       <c r="D43" t="n">
-        <v>5.525587675590885</v>
+        <v>5.525587675590887</v>
       </c>
       <c r="E43" t="n">
-        <v>5.525587675590885</v>
+        <v>5.525587675590887</v>
       </c>
       <c r="F43" t="n">
-        <v>5.525587675590885</v>
+        <v>5.525587675590887</v>
       </c>
       <c r="G43" t="n">
-        <v>5.525587675590885</v>
+        <v>5.525587675590887</v>
       </c>
       <c r="H43" t="n">
-        <v>5.525587675590885</v>
+        <v>5.525587675590887</v>
       </c>
       <c r="I43" t="n">
-        <v>5.525587675590885</v>
+        <v>5.525587675590887</v>
       </c>
       <c r="J43" t="n">
-        <v>5.525587675590885</v>
+        <v>5.525587675590887</v>
       </c>
       <c r="K43" t="n">
-        <v>5.525587675590885</v>
+        <v>5.525587675590887</v>
       </c>
       <c r="L43" t="n">
-        <v>5.525587675590885</v>
+        <v>5.525587675590887</v>
       </c>
       <c r="M43" t="n">
-        <v>5.525587675590885</v>
+        <v>5.525587675590887</v>
       </c>
       <c r="N43" t="n">
-        <v>5.525587675590885</v>
+        <v>5.525587675590887</v>
       </c>
       <c r="O43" t="n">
-        <v>5.525587675590885</v>
+        <v>5.525587675590887</v>
       </c>
       <c r="P43" t="n">
-        <v>5.525587675590885</v>
+        <v>5.525587675590887</v>
       </c>
       <c r="Q43" t="n">
-        <v>5.525587675590885</v>
+        <v>5.525587675590887</v>
       </c>
       <c r="R43" t="n">
-        <v>5.525587675590885</v>
+        <v>5.525587675590887</v>
       </c>
       <c r="S43" t="n">
-        <v>5.525587675590885</v>
+        <v>5.525587675590887</v>
       </c>
       <c r="T43" t="n">
-        <v>5.525587675590885</v>
+        <v>5.525587675590887</v>
       </c>
       <c r="U43" t="n">
-        <v>5.525587675590885</v>
+        <v>5.525587675590887</v>
       </c>
       <c r="V43" t="n">
-        <v>5.525587675590885</v>
+        <v>5.525587675590887</v>
       </c>
       <c r="W43" t="n">
-        <v>5.525587675590885</v>
+        <v>5.525587675590887</v>
       </c>
       <c r="X43" t="n">
-        <v>5.525587675590885</v>
+        <v>5.525587675590887</v>
       </c>
       <c r="Y43" t="n">
-        <v>5.525587675590885</v>
+        <v>5.525587675590887</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>214.8281511449426</v>
+        <v>214.8281511449427</v>
       </c>
       <c r="C44" t="n">
         <v>145.0606299884921</v>
       </c>
       <c r="D44" t="n">
-        <v>75.29310883204147</v>
+        <v>145.0606299884921</v>
       </c>
       <c r="E44" t="n">
-        <v>5.525587675590885</v>
+        <v>145.0606299884921</v>
       </c>
       <c r="F44" t="n">
-        <v>5.525587675590885</v>
+        <v>75.29310883204148</v>
       </c>
       <c r="G44" t="n">
-        <v>5.525587675590885</v>
+        <v>5.525587675590887</v>
       </c>
       <c r="H44" t="n">
-        <v>5.525587675590885</v>
+        <v>5.525587675590887</v>
       </c>
       <c r="I44" t="n">
-        <v>5.525587675590885</v>
+        <v>5.525587675590887</v>
       </c>
       <c r="J44" t="n">
-        <v>5.525587675590885</v>
+        <v>5.525587675590887</v>
       </c>
       <c r="K44" t="n">
-        <v>5.525587675590885</v>
+        <v>5.525587675590887</v>
       </c>
       <c r="L44" t="n">
         <v>60.19328326694684</v>
       </c>
       <c r="M44" t="n">
-        <v>128.572430752384</v>
+        <v>128.5724307523841</v>
       </c>
       <c r="N44" t="n">
         <v>196.9515782378213</v>
       </c>
       <c r="O44" t="n">
-        <v>265.3307257232585</v>
+        <v>265.3307257232586</v>
       </c>
       <c r="P44" t="n">
         <v>276.2793837795443</v>
@@ -7690,10 +7690,10 @@
         <v>276.2793837795443</v>
       </c>
       <c r="X44" t="n">
-        <v>214.8281511449426</v>
+        <v>214.8281511449427</v>
       </c>
       <c r="Y44" t="n">
-        <v>214.8281511449426</v>
+        <v>214.8281511449427</v>
       </c>
     </row>
     <row r="45">
@@ -7703,46 +7703,46 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>5.525587675590885</v>
+        <v>42.76364759395912</v>
       </c>
       <c r="C45" t="n">
-        <v>5.525587675590885</v>
+        <v>42.76364759395912</v>
       </c>
       <c r="D45" t="n">
-        <v>5.525587675590885</v>
+        <v>42.76364759395912</v>
       </c>
       <c r="E45" t="n">
-        <v>5.525587675590885</v>
+        <v>42.76364759395912</v>
       </c>
       <c r="F45" t="n">
-        <v>5.525587675590885</v>
+        <v>42.76364759395912</v>
       </c>
       <c r="G45" t="n">
-        <v>5.525587675590885</v>
+        <v>5.525587675590887</v>
       </c>
       <c r="H45" t="n">
-        <v>5.525587675590885</v>
+        <v>5.525587675590887</v>
       </c>
       <c r="I45" t="n">
-        <v>5.525587675590885</v>
+        <v>5.525587675590887</v>
       </c>
       <c r="J45" t="n">
-        <v>5.525587675590885</v>
+        <v>5.525587675590887</v>
       </c>
       <c r="K45" t="n">
-        <v>5.525587675590885</v>
+        <v>5.525587675590887</v>
       </c>
       <c r="L45" t="n">
-        <v>73.90473516102809</v>
+        <v>73.9047351610281</v>
       </c>
       <c r="M45" t="n">
         <v>115.9749525916762</v>
       </c>
       <c r="N45" t="n">
-        <v>180.2312866831551</v>
+        <v>181.6146945723186</v>
       </c>
       <c r="O45" t="n">
-        <v>248.6104341685923</v>
+        <v>207.9002362941071</v>
       </c>
       <c r="P45" t="n">
         <v>276.2793837795443</v>
@@ -7760,19 +7760,19 @@
         <v>182.2986899068603</v>
       </c>
       <c r="U45" t="n">
-        <v>145.0606299884921</v>
+        <v>112.5311687504097</v>
       </c>
       <c r="V45" t="n">
-        <v>75.29310883204147</v>
+        <v>112.5311687504097</v>
       </c>
       <c r="W45" t="n">
-        <v>5.525587675590885</v>
+        <v>42.76364759395912</v>
       </c>
       <c r="X45" t="n">
-        <v>5.525587675590885</v>
+        <v>42.76364759395912</v>
       </c>
       <c r="Y45" t="n">
-        <v>5.525587675590885</v>
+        <v>42.76364759395912</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>5.525587675590885</v>
+        <v>5.525587675590887</v>
       </c>
       <c r="C46" t="n">
-        <v>5.525587675590885</v>
+        <v>5.525587675590887</v>
       </c>
       <c r="D46" t="n">
-        <v>5.525587675590885</v>
+        <v>5.525587675590887</v>
       </c>
       <c r="E46" t="n">
-        <v>5.525587675590885</v>
+        <v>5.525587675590887</v>
       </c>
       <c r="F46" t="n">
-        <v>5.525587675590885</v>
+        <v>5.525587675590887</v>
       </c>
       <c r="G46" t="n">
-        <v>5.525587675590885</v>
+        <v>5.525587675590887</v>
       </c>
       <c r="H46" t="n">
-        <v>5.525587675590885</v>
+        <v>5.525587675590887</v>
       </c>
       <c r="I46" t="n">
-        <v>5.525587675590885</v>
+        <v>5.525587675590887</v>
       </c>
       <c r="J46" t="n">
-        <v>5.525587675590885</v>
+        <v>5.525587675590887</v>
       </c>
       <c r="K46" t="n">
-        <v>5.525587675590885</v>
+        <v>5.525587675590887</v>
       </c>
       <c r="L46" t="n">
-        <v>5.525587675590885</v>
+        <v>5.525587675590887</v>
       </c>
       <c r="M46" t="n">
-        <v>5.525587675590885</v>
+        <v>5.525587675590887</v>
       </c>
       <c r="N46" t="n">
-        <v>5.525587675590885</v>
+        <v>5.525587675590887</v>
       </c>
       <c r="O46" t="n">
-        <v>5.525587675590885</v>
+        <v>5.525587675590887</v>
       </c>
       <c r="P46" t="n">
-        <v>5.525587675590885</v>
+        <v>5.525587675590887</v>
       </c>
       <c r="Q46" t="n">
-        <v>5.525587675590885</v>
+        <v>5.525587675590887</v>
       </c>
       <c r="R46" t="n">
-        <v>5.525587675590885</v>
+        <v>5.525587675590887</v>
       </c>
       <c r="S46" t="n">
-        <v>5.525587675590885</v>
+        <v>5.525587675590887</v>
       </c>
       <c r="T46" t="n">
-        <v>5.525587675590885</v>
+        <v>5.525587675590887</v>
       </c>
       <c r="U46" t="n">
-        <v>5.525587675590885</v>
+        <v>5.525587675590887</v>
       </c>
       <c r="V46" t="n">
-        <v>5.525587675590885</v>
+        <v>5.525587675590887</v>
       </c>
       <c r="W46" t="n">
-        <v>5.525587675590885</v>
+        <v>5.525587675590887</v>
       </c>
       <c r="X46" t="n">
-        <v>5.525587675590885</v>
+        <v>5.525587675590887</v>
       </c>
       <c r="Y46" t="n">
-        <v>5.525587675590885</v>
+        <v>5.525587675590887</v>
       </c>
     </row>
   </sheetData>
@@ -8698,13 +8698,13 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>79.64993484509654</v>
+        <v>79.64993484509665</v>
       </c>
       <c r="N11" t="n">
-        <v>73.07941820968324</v>
+        <v>73.07941820968341</v>
       </c>
       <c r="O11" t="n">
-        <v>92.30044795186421</v>
+        <v>92.30044795186438</v>
       </c>
       <c r="P11" t="n">
         <v>83.66766412458549</v>
@@ -8771,13 +8771,13 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K12" t="n">
-        <v>43.29344325087428</v>
+        <v>43.29344325087422</v>
       </c>
       <c r="L12" t="n">
-        <v>28.58059803112887</v>
+        <v>54.27030757324414</v>
       </c>
       <c r="M12" t="n">
-        <v>23.96906860367247</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8786,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>73.22801994516507</v>
+        <v>71.50737900672281</v>
       </c>
       <c r="Q12" t="n">
         <v>54.62009481132077</v>
@@ -8935,13 +8935,13 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>79.64993484509654</v>
+        <v>79.64993484509665</v>
       </c>
       <c r="N14" t="n">
-        <v>73.07941820968324</v>
+        <v>73.07941820968341</v>
       </c>
       <c r="O14" t="n">
-        <v>92.30044795186421</v>
+        <v>92.30044795186438</v>
       </c>
       <c r="P14" t="n">
         <v>83.66766412458549</v>
@@ -9008,22 +9008,22 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K15" t="n">
-        <v>68.76096162327045</v>
+        <v>43.29344325087422</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>54.27030757324414</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>22.97465060225413</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>27.08214826240513</v>
+        <v>39.7926655454863</v>
       </c>
       <c r="P15" t="n">
-        <v>73.22801994516507</v>
+        <v>8.740062858982384</v>
       </c>
       <c r="Q15" t="n">
         <v>54.62009481132077</v>
@@ -9245,10 +9245,10 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K18" t="n">
-        <v>68.76096162327045</v>
+        <v>42.03395347591859</v>
       </c>
       <c r="L18" t="n">
-        <v>57.15865699882731</v>
+        <v>16.03724500439782</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9257,10 +9257,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>42.51879370065527</v>
       </c>
       <c r="P18" t="n">
-        <v>50.99087079140249</v>
+        <v>76.32049723252862</v>
       </c>
       <c r="Q18" t="n">
         <v>54.62009481132077</v>
@@ -9482,22 +9482,22 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K21" t="n">
-        <v>42.03395347591859</v>
+        <v>68.76096162327045</v>
       </c>
       <c r="L21" t="n">
-        <v>57.1586569988273</v>
+        <v>31.82903055770116</v>
       </c>
       <c r="M21" t="n">
-        <v>26.5746768230193</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1.373757127437216</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>42.51879370065527</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>7.25065128764254</v>
+        <v>76.32049723252857</v>
       </c>
       <c r="Q21" t="n">
         <v>54.62009481132077</v>
@@ -9719,22 +9719,22 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K24" t="n">
-        <v>68.76096162327045</v>
+        <v>42.03395347591859</v>
       </c>
       <c r="L24" t="n">
         <v>61.74054585753063</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>31.15656568172264</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>8.746346832398558</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>44.12485489052672</v>
       </c>
       <c r="P24" t="n">
-        <v>64.55141054493859</v>
+        <v>7.25065128764254</v>
       </c>
       <c r="Q24" t="n">
         <v>54.62009481132077</v>
@@ -9965,13 +9965,13 @@
         <v>31.15656568172264</v>
       </c>
       <c r="N27" t="n">
-        <v>5.770519163566675</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>47.1006825593586</v>
       </c>
       <c r="P27" t="n">
-        <v>7.25065128764254</v>
+        <v>13.02117045120919</v>
       </c>
       <c r="Q27" t="n">
         <v>54.62009481132077</v>
@@ -10196,16 +10196,16 @@
         <v>42.03395347591859</v>
       </c>
       <c r="L30" t="n">
-        <v>61.74054585753063</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>25.01589589923057</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>10.37603260105852</v>
+        <v>47.1006825593586</v>
       </c>
       <c r="P30" t="n">
         <v>80.9023860912319</v>
@@ -10430,16 +10430,16 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K33" t="n">
-        <v>42.03395347591859</v>
+        <v>68.76096162327045</v>
       </c>
       <c r="L33" t="n">
         <v>61.74054585753063</v>
       </c>
       <c r="M33" t="n">
-        <v>31.15656568172264</v>
+        <v>1.453729865538911</v>
       </c>
       <c r="N33" t="n">
-        <v>5.770519163566675</v>
+        <v>8.746346832398558</v>
       </c>
       <c r="O33" t="n">
         <v>47.1006825593586</v>
@@ -10831,13 +10831,13 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>86.25399590349876</v>
+        <v>86.25399590349872</v>
       </c>
       <c r="N38" t="n">
-        <v>79.64206037644145</v>
+        <v>79.64206037644141</v>
       </c>
       <c r="O38" t="n">
-        <v>99.00804712831381</v>
+        <v>99.00804712831376</v>
       </c>
       <c r="P38" t="n">
         <v>83.66766412458549</v>
@@ -10907,19 +10907,19 @@
         <v>42.03395347591859</v>
       </c>
       <c r="L39" t="n">
-        <v>61.74054585753065</v>
+        <v>61.74054585753061</v>
       </c>
       <c r="M39" t="n">
-        <v>31.15656568172265</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>5.770519163566647</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>47.1006825593586</v>
+        <v>10.37603260105843</v>
       </c>
       <c r="P39" t="n">
-        <v>7.25065128764254</v>
+        <v>80.9023860912319</v>
       </c>
       <c r="Q39" t="n">
         <v>54.62009481132077</v>
@@ -11141,22 +11141,22 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K42" t="n">
-        <v>42.03395347591859</v>
+        <v>68.76096162327045</v>
       </c>
       <c r="L42" t="n">
-        <v>57.15865699882731</v>
+        <v>31.82903055770124</v>
       </c>
       <c r="M42" t="n">
-        <v>26.57467682301932</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>1.373757127437216</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>42.51879370065527</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>7.25065128764254</v>
+        <v>76.32049723252862</v>
       </c>
       <c r="Q42" t="n">
         <v>54.62009481132077</v>
@@ -11305,16 +11305,16 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>81.67210704479542</v>
+        <v>81.67210704479544</v>
       </c>
       <c r="N44" t="n">
-        <v>75.06017151773811</v>
+        <v>75.06017151773813</v>
       </c>
       <c r="O44" t="n">
-        <v>94.42615826961047</v>
+        <v>94.42615826961057</v>
       </c>
       <c r="P44" t="n">
-        <v>83.66766412458557</v>
+        <v>83.66766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>55.20189757157522</v>
@@ -11381,19 +11381,19 @@
         <v>42.03395347591859</v>
       </c>
       <c r="L45" t="n">
-        <v>57.15865699882731</v>
+        <v>57.15865699882733</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>1.397381706225772</v>
       </c>
       <c r="O45" t="n">
-        <v>42.51879370065528</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>35.19908523809909</v>
+        <v>76.32049723252862</v>
       </c>
       <c r="Q45" t="n">
         <v>54.62009481132077</v>
@@ -23272,19 +23272,19 @@
         <v>399.146417573369</v>
       </c>
       <c r="G11" t="n">
-        <v>364.9570227077137</v>
+        <v>421.7580153092234</v>
       </c>
       <c r="H11" t="n">
-        <v>280.8443890786121</v>
+        <v>345.3323461647947</v>
       </c>
       <c r="I11" t="n">
-        <v>172.5060619435341</v>
+        <v>236.9940190297167</v>
       </c>
       <c r="J11" t="n">
-        <v>0.820341852030495</v>
+        <v>65.30829893821308</v>
       </c>
       <c r="K11" t="n">
-        <v>4.54009219836766</v>
+        <v>4.540092198367574</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -23302,7 +23302,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>72.06250956611183</v>
+        <v>72.06250956611174</v>
       </c>
       <c r="R11" t="n">
         <v>183.115253089957</v>
@@ -23314,19 +23314,19 @@
         <v>217.4939154415779</v>
       </c>
       <c r="U11" t="n">
-        <v>248.7550290355369</v>
+        <v>184.267071949354</v>
       </c>
       <c r="V11" t="n">
-        <v>313.3044420010231</v>
+        <v>248.8164849148402</v>
       </c>
       <c r="W11" t="n">
-        <v>325.3917254792934</v>
+        <v>260.9037683931105</v>
       </c>
       <c r="X11" t="n">
         <v>348.8168793035129</v>
       </c>
       <c r="Y11" t="n">
-        <v>377.9289763951821</v>
+        <v>321.1279837936723</v>
       </c>
     </row>
     <row r="12">
@@ -23336,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>123.5248002948518</v>
+        <v>188.0127573810344</v>
       </c>
       <c r="C12" t="n">
         <v>203.8424276152394</v>
@@ -23345,22 +23345,22 @@
         <v>172.0989423795122</v>
       </c>
       <c r="E12" t="n">
-        <v>187.4605452976028</v>
+        <v>122.9725882114199</v>
       </c>
       <c r="F12" t="n">
-        <v>173.9843481253239</v>
+        <v>109.496391039141</v>
       </c>
       <c r="G12" t="n">
         <v>160.788879112705</v>
       </c>
       <c r="H12" t="n">
-        <v>74.37580212305592</v>
+        <v>135.5668292148727</v>
       </c>
       <c r="I12" t="n">
-        <v>44.67869477157478</v>
+        <v>109.1666518577574</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>60.09792259587546</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23381,10 +23381,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>24.96667318100172</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>140.3550075462405</v>
+        <v>75.86705046005761</v>
       </c>
       <c r="S12" t="n">
         <v>203.8230251082073</v>
@@ -23393,7 +23393,7 @@
         <v>229.1840046946766</v>
       </c>
       <c r="U12" t="n">
-        <v>249.6346803110086</v>
+        <v>217.8003608905004</v>
       </c>
       <c r="V12" t="n">
         <v>249.2999251801724</v>
@@ -23439,25 +23439,25 @@
         <v>162.035433718405</v>
       </c>
       <c r="J13" t="n">
-        <v>118.8795500350213</v>
+        <v>118.8795500350212</v>
       </c>
       <c r="K13" t="n">
-        <v>65.44278096062496</v>
+        <v>65.44278096062492</v>
       </c>
       <c r="L13" t="n">
-        <v>32.83655702054658</v>
+        <v>32.83655702054654</v>
       </c>
       <c r="M13" t="n">
-        <v>27.93542683887725</v>
+        <v>27.93542683887719</v>
       </c>
       <c r="N13" t="n">
-        <v>16.29979576519152</v>
+        <v>16.29979576519146</v>
       </c>
       <c r="O13" t="n">
-        <v>43.9350210594724</v>
+        <v>43.93502105947236</v>
       </c>
       <c r="P13" t="n">
-        <v>66.92470524168603</v>
+        <v>66.924705241686</v>
       </c>
       <c r="Q13" t="n">
         <v>135.7669381321652</v>
@@ -23494,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>364.5563275970632</v>
+        <v>300.0683705108803</v>
       </c>
       <c r="C14" t="n">
         <v>333.5971194742085</v>
       </c>
       <c r="D14" t="n">
-        <v>319.1317556432476</v>
+        <v>262.3307630417378</v>
       </c>
       <c r="E14" t="n">
         <v>359.9585549362873</v>
@@ -23518,10 +23518,10 @@
         <v>236.9940190297167</v>
       </c>
       <c r="J14" t="n">
-        <v>65.30829893821314</v>
+        <v>65.30829893821308</v>
       </c>
       <c r="K14" t="n">
-        <v>4.54009219836766</v>
+        <v>4.540092198367574</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -23539,28 +23539,28 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>72.06250956611183</v>
+        <v>72.06250956611174</v>
       </c>
       <c r="R14" t="n">
-        <v>126.3142604884473</v>
+        <v>183.115253089957</v>
       </c>
       <c r="S14" t="n">
-        <v>161.1503926955567</v>
+        <v>225.6383497817393</v>
       </c>
       <c r="T14" t="n">
         <v>217.4939154415779</v>
       </c>
       <c r="U14" t="n">
-        <v>248.7550290355369</v>
+        <v>184.267071949354</v>
       </c>
       <c r="V14" t="n">
         <v>313.3044420010231</v>
       </c>
       <c r="W14" t="n">
-        <v>260.9037683931107</v>
+        <v>260.9037683931105</v>
       </c>
       <c r="X14" t="n">
-        <v>284.3289222173303</v>
+        <v>348.8168793035129</v>
       </c>
       <c r="Y14" t="n">
         <v>377.9289763951821</v>
@@ -23573,13 +23573,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>131.2117647795247</v>
+        <v>188.0127573810344</v>
       </c>
       <c r="C15" t="n">
-        <v>203.8424276152394</v>
+        <v>172.0081081947312</v>
       </c>
       <c r="D15" t="n">
-        <v>172.0989423795122</v>
+        <v>107.6109852933293</v>
       </c>
       <c r="E15" t="n">
         <v>187.4605452976028</v>
@@ -23588,16 +23588,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G15" t="n">
-        <v>96.30092202652237</v>
+        <v>160.788879112705</v>
       </c>
       <c r="H15" t="n">
-        <v>71.07887212869009</v>
+        <v>135.5668292148727</v>
       </c>
       <c r="I15" t="n">
-        <v>44.67869477157478</v>
+        <v>109.1666518577574</v>
       </c>
       <c r="J15" t="n">
-        <v>60.0979225958755</v>
+        <v>60.09792259587546</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23618,10 +23618,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>24.96667318100172</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>140.3550075462405</v>
+        <v>75.86705046005761</v>
       </c>
       <c r="S15" t="n">
         <v>203.8230251082073</v>
@@ -23630,7 +23630,7 @@
         <v>229.1840046946766</v>
       </c>
       <c r="U15" t="n">
-        <v>249.6346803110086</v>
+        <v>185.1467232248257</v>
       </c>
       <c r="V15" t="n">
         <v>249.2999251801724</v>
@@ -23676,25 +23676,25 @@
         <v>162.035433718405</v>
       </c>
       <c r="J16" t="n">
-        <v>118.8795500350213</v>
+        <v>118.8795500350212</v>
       </c>
       <c r="K16" t="n">
-        <v>65.44278096062496</v>
+        <v>65.44278096062492</v>
       </c>
       <c r="L16" t="n">
-        <v>32.83655702054658</v>
+        <v>32.83655702054654</v>
       </c>
       <c r="M16" t="n">
-        <v>27.93542683887725</v>
+        <v>27.93542683887719</v>
       </c>
       <c r="N16" t="n">
-        <v>16.29979576519152</v>
+        <v>16.29979576519146</v>
       </c>
       <c r="O16" t="n">
-        <v>43.9350210594724</v>
+        <v>43.93502105947236</v>
       </c>
       <c r="P16" t="n">
-        <v>66.92470524168603</v>
+        <v>66.924705241686</v>
       </c>
       <c r="Q16" t="n">
         <v>135.7669381321652</v>
@@ -23740,13 +23740,13 @@
         <v>319.1317556432476</v>
       </c>
       <c r="E17" t="n">
-        <v>359.9585549362873</v>
+        <v>301.8075886520151</v>
       </c>
       <c r="F17" t="n">
         <v>399.146417573369</v>
       </c>
       <c r="G17" t="n">
-        <v>421.7434376086887</v>
+        <v>352.6735916638027</v>
       </c>
       <c r="H17" t="n">
         <v>345.1830522891943</v>
@@ -23758,7 +23758,7 @@
         <v>64.07103482746055</v>
       </c>
       <c r="K17" t="n">
-        <v>2.685754023983435</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -23776,19 +23776,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.418435962614794</v>
+        <v>70.48828190750086</v>
       </c>
       <c r="R17" t="n">
-        <v>113.1296906638614</v>
+        <v>182.1995366087474</v>
       </c>
       <c r="S17" t="n">
-        <v>156.2363144859199</v>
+        <v>225.306160430806</v>
       </c>
       <c r="T17" t="n">
-        <v>156.5933812492318</v>
+        <v>217.4301015574874</v>
       </c>
       <c r="U17" t="n">
-        <v>248.7538628194941</v>
+        <v>179.684016874608</v>
       </c>
       <c r="V17" t="n">
         <v>313.3044420010231</v>
@@ -23800,7 +23800,7 @@
         <v>348.8168793035129</v>
       </c>
       <c r="Y17" t="n">
-        <v>377.9289763951821</v>
+        <v>308.859130450296</v>
       </c>
     </row>
     <row r="18">
@@ -23822,19 +23822,19 @@
         <v>187.4605452976028</v>
       </c>
       <c r="F18" t="n">
-        <v>172.5086443846872</v>
+        <v>173.9843481253239</v>
       </c>
       <c r="G18" t="n">
-        <v>91.71123341040551</v>
+        <v>160.7810793552916</v>
       </c>
       <c r="H18" t="n">
-        <v>66.42165403391495</v>
+        <v>135.491499978801</v>
       </c>
       <c r="I18" t="n">
-        <v>39.82826163350579</v>
+        <v>72.03242825920731</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>59.36101656761896</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23855,13 +23855,13 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>23.97104098907107</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>139.8707383973617</v>
+        <v>70.80089245247558</v>
       </c>
       <c r="S18" t="n">
-        <v>203.6781480351992</v>
+        <v>134.6083020903131</v>
       </c>
       <c r="T18" t="n">
         <v>229.1525661987865</v>
@@ -23873,7 +23873,7 @@
         <v>249.2999251801724</v>
       </c>
       <c r="W18" t="n">
-        <v>283.2492567629311</v>
+        <v>214.179410818045</v>
       </c>
       <c r="X18" t="n">
         <v>230.033063710963</v>
@@ -23971,7 +23971,7 @@
         <v>364.5563275970632</v>
       </c>
       <c r="C20" t="n">
-        <v>333.5971194742085</v>
+        <v>264.5272735293224</v>
       </c>
       <c r="D20" t="n">
         <v>319.1317556432476</v>
@@ -23986,7 +23986,7 @@
         <v>421.7434376086887</v>
       </c>
       <c r="H20" t="n">
-        <v>276.1132063443082</v>
+        <v>345.1830522891943</v>
       </c>
       <c r="I20" t="n">
         <v>236.4320122298547</v>
@@ -23995,7 +23995,7 @@
         <v>64.07103482746055</v>
       </c>
       <c r="K20" t="n">
-        <v>2.685754023983435</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -24016,22 +24016,22 @@
         <v>70.48828190750086</v>
       </c>
       <c r="R20" t="n">
-        <v>182.1995366087474</v>
+        <v>113.1296906638614</v>
       </c>
       <c r="S20" t="n">
-        <v>225.306160430806</v>
+        <v>167.1551941465339</v>
       </c>
       <c r="T20" t="n">
-        <v>217.4301015574874</v>
+        <v>148.3602556126014</v>
       </c>
       <c r="U20" t="n">
-        <v>187.9171425112385</v>
+        <v>248.7538628194941</v>
       </c>
       <c r="V20" t="n">
-        <v>244.2345960561371</v>
+        <v>313.3044420010231</v>
       </c>
       <c r="W20" t="n">
-        <v>256.3218795344073</v>
+        <v>325.3917254792934</v>
       </c>
       <c r="X20" t="n">
         <v>348.8168793035129</v>
@@ -24050,19 +24050,19 @@
         <v>188.0127573810344</v>
       </c>
       <c r="C21" t="n">
-        <v>166.9767482960548</v>
+        <v>203.8424276152394</v>
       </c>
       <c r="D21" t="n">
         <v>172.0989423795122</v>
       </c>
       <c r="E21" t="n">
-        <v>187.4605452976028</v>
+        <v>118.3906993527168</v>
       </c>
       <c r="F21" t="n">
-        <v>173.9843481253239</v>
+        <v>113.1476278170683</v>
       </c>
       <c r="G21" t="n">
-        <v>160.7810793552916</v>
+        <v>91.71123341040553</v>
       </c>
       <c r="H21" t="n">
         <v>135.491499978801</v>
@@ -24092,22 +24092,22 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>23.97104098907107</v>
       </c>
       <c r="R21" t="n">
-        <v>70.80089245247561</v>
+        <v>139.8707383973617</v>
       </c>
       <c r="S21" t="n">
         <v>203.6781480351992</v>
       </c>
       <c r="T21" t="n">
-        <v>229.1525661987865</v>
+        <v>160.0827202539004</v>
       </c>
       <c r="U21" t="n">
-        <v>180.5643212241874</v>
+        <v>249.6341671690735</v>
       </c>
       <c r="V21" t="n">
-        <v>180.2300792352863</v>
+        <v>249.2999251801724</v>
       </c>
       <c r="W21" t="n">
         <v>283.2492567629311</v>
@@ -24226,13 +24226,13 @@
         <v>345.1830522891943</v>
       </c>
       <c r="I23" t="n">
-        <v>178.5545847104472</v>
+        <v>236.4320122298547</v>
       </c>
       <c r="J23" t="n">
         <v>64.07103482746055</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>2.685754023983435</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -24250,31 +24250,31 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>70.48828190750086</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>182.1995366087474</v>
+        <v>108.547801805158</v>
       </c>
       <c r="S23" t="n">
-        <v>225.306160430806</v>
+        <v>151.6544256272166</v>
       </c>
       <c r="T23" t="n">
-        <v>143.778366753898</v>
+        <v>217.4301015574874</v>
       </c>
       <c r="U23" t="n">
         <v>248.7538628194941</v>
       </c>
       <c r="V23" t="n">
-        <v>313.3044420010231</v>
+        <v>249.5778075615436</v>
       </c>
       <c r="W23" t="n">
         <v>325.3917254792934</v>
       </c>
       <c r="X23" t="n">
-        <v>275.1651444999235</v>
+        <v>348.8168793035129</v>
       </c>
       <c r="Y23" t="n">
-        <v>304.2772415915928</v>
+        <v>377.9289763951821</v>
       </c>
     </row>
     <row r="24">
@@ -24299,16 +24299,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G24" t="n">
-        <v>87.12934455170219</v>
+        <v>160.7810793552916</v>
       </c>
       <c r="H24" t="n">
-        <v>61.83976517521162</v>
+        <v>135.491499978801</v>
       </c>
       <c r="I24" t="n">
         <v>108.8981075783919</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>59.36101656761896</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24335,25 +24335,25 @@
         <v>139.8707383973617</v>
       </c>
       <c r="S24" t="n">
-        <v>198.1667165878167</v>
+        <v>203.6781480351992</v>
       </c>
       <c r="T24" t="n">
-        <v>155.5008313951971</v>
+        <v>229.1525661987865</v>
       </c>
       <c r="U24" t="n">
-        <v>249.6341671690735</v>
+        <v>184.761719154072</v>
       </c>
       <c r="V24" t="n">
-        <v>249.2999251801724</v>
+        <v>175.648190376583</v>
       </c>
       <c r="W24" t="n">
-        <v>283.2492567629311</v>
+        <v>209.5975219593417</v>
       </c>
       <c r="X24" t="n">
         <v>230.033063710963</v>
       </c>
       <c r="Y24" t="n">
-        <v>242.8962664135933</v>
+        <v>169.2445316100039</v>
       </c>
     </row>
     <row r="25">
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>303.9931460536722</v>
+        <v>364.5563275970632</v>
       </c>
       <c r="C26" t="n">
         <v>333.5971194742085</v>
@@ -24457,10 +24457,10 @@
         <v>399.146417573369</v>
       </c>
       <c r="G26" t="n">
-        <v>421.7434376086887</v>
+        <v>348.0917028050993</v>
       </c>
       <c r="H26" t="n">
-        <v>271.5313174856049</v>
+        <v>345.1830522891943</v>
       </c>
       <c r="I26" t="n">
         <v>236.4320122298547</v>
@@ -24490,7 +24490,7 @@
         <v>70.48828190750086</v>
       </c>
       <c r="R26" t="n">
-        <v>108.547801805158</v>
+        <v>182.1995366087474</v>
       </c>
       <c r="S26" t="n">
         <v>225.306160430806</v>
@@ -24508,10 +24508,10 @@
         <v>325.3917254792934</v>
       </c>
       <c r="X26" t="n">
-        <v>348.8168793035129</v>
+        <v>288.253697760122</v>
       </c>
       <c r="Y26" t="n">
-        <v>377.9289763951821</v>
+        <v>304.2772415915928</v>
       </c>
     </row>
     <row r="27">
@@ -24566,10 +24566,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>23.97104098907107</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>139.8707383973617</v>
+        <v>66.21900359377227</v>
       </c>
       <c r="S27" t="n">
         <v>203.6781480351992</v>
@@ -24578,10 +24578,10 @@
         <v>229.1525661987865</v>
       </c>
       <c r="U27" t="n">
-        <v>249.6341671690735</v>
+        <v>208.7327601431431</v>
       </c>
       <c r="V27" t="n">
-        <v>184.4274771651709</v>
+        <v>249.2999251801724</v>
       </c>
       <c r="W27" t="n">
         <v>209.5975219593417</v>
@@ -24590,7 +24590,7 @@
         <v>156.3813289073736</v>
       </c>
       <c r="Y27" t="n">
-        <v>169.2445316100039</v>
+        <v>242.8962664135933</v>
       </c>
     </row>
     <row r="28">
@@ -24682,7 +24682,7 @@
         <v>364.5563275970632</v>
       </c>
       <c r="C29" t="n">
-        <v>333.5971194742085</v>
+        <v>259.9453846706191</v>
       </c>
       <c r="D29" t="n">
         <v>319.1317556432476</v>
@@ -24691,10 +24691,10 @@
         <v>359.9585549362873</v>
       </c>
       <c r="F29" t="n">
-        <v>399.146417573369</v>
+        <v>338.5832360299781</v>
       </c>
       <c r="G29" t="n">
-        <v>421.7434376086887</v>
+        <v>348.0917028050993</v>
       </c>
       <c r="H29" t="n">
         <v>345.1830522891943</v>
@@ -24703,7 +24703,7 @@
         <v>236.4320122298547</v>
       </c>
       <c r="J29" t="n">
-        <v>3.507853284069604</v>
+        <v>64.07103482746055</v>
       </c>
       <c r="K29" t="n">
         <v>2.685754023983435</v>
@@ -24733,13 +24733,13 @@
         <v>225.306160430806</v>
       </c>
       <c r="T29" t="n">
-        <v>143.778366753898</v>
+        <v>217.4301015574874</v>
       </c>
       <c r="U29" t="n">
-        <v>175.1021280159047</v>
+        <v>248.7538628194941</v>
       </c>
       <c r="V29" t="n">
-        <v>313.3044420010231</v>
+        <v>239.6527071974337</v>
       </c>
       <c r="W29" t="n">
         <v>325.3917254792934</v>
@@ -24748,7 +24748,7 @@
         <v>348.8168793035129</v>
       </c>
       <c r="Y29" t="n">
-        <v>304.2772415915928</v>
+        <v>377.9289763951821</v>
       </c>
     </row>
     <row r="30">
@@ -24758,10 +24758,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>114.3610225774451</v>
+        <v>188.0127573810344</v>
       </c>
       <c r="C30" t="n">
-        <v>138.9699796002379</v>
+        <v>203.8424276152394</v>
       </c>
       <c r="D30" t="n">
         <v>172.0989423795122</v>
@@ -24806,7 +24806,7 @@
         <v>23.97104098907107</v>
       </c>
       <c r="R30" t="n">
-        <v>66.21900359377227</v>
+        <v>139.8707383973617</v>
       </c>
       <c r="S30" t="n">
         <v>203.6781480351992</v>
@@ -24815,13 +24815,13 @@
         <v>229.1525661987865</v>
       </c>
       <c r="U30" t="n">
-        <v>249.6341671690735</v>
+        <v>184.761719154072</v>
       </c>
       <c r="V30" t="n">
-        <v>249.2999251801724</v>
+        <v>175.648190376583</v>
       </c>
       <c r="W30" t="n">
-        <v>283.2492567629311</v>
+        <v>209.5975219593417</v>
       </c>
       <c r="X30" t="n">
         <v>230.033063710963</v>
@@ -24925,10 +24925,10 @@
         <v>319.1317556432476</v>
       </c>
       <c r="E32" t="n">
-        <v>286.3068201326979</v>
+        <v>359.9585549362873</v>
       </c>
       <c r="F32" t="n">
-        <v>335.4197831338896</v>
+        <v>399.146417573369</v>
       </c>
       <c r="G32" t="n">
         <v>421.7434376086887</v>
@@ -24961,25 +24961,25 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.92510036410993</v>
       </c>
       <c r="R32" t="n">
-        <v>182.1995366087474</v>
+        <v>108.547801805158</v>
       </c>
       <c r="S32" t="n">
         <v>225.306160430806</v>
       </c>
       <c r="T32" t="n">
-        <v>143.778366753898</v>
+        <v>217.4301015574874</v>
       </c>
       <c r="U32" t="n">
         <v>248.7538628194941</v>
       </c>
       <c r="V32" t="n">
-        <v>313.3044420010231</v>
+        <v>239.6527071974337</v>
       </c>
       <c r="W32" t="n">
-        <v>325.3917254792934</v>
+        <v>251.739990675704</v>
       </c>
       <c r="X32" t="n">
         <v>348.8168793035129</v>
@@ -24995,10 +24995,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>123.1403093660329</v>
+        <v>188.0127573810344</v>
       </c>
       <c r="C33" t="n">
-        <v>203.8424276152394</v>
+        <v>130.19069281165</v>
       </c>
       <c r="D33" t="n">
         <v>172.0989423795122</v>
@@ -25049,7 +25049,7 @@
         <v>203.6781480351992</v>
       </c>
       <c r="T33" t="n">
-        <v>229.1525661987865</v>
+        <v>164.280118183785</v>
       </c>
       <c r="U33" t="n">
         <v>249.6341671690735</v>
@@ -25058,13 +25058,13 @@
         <v>175.648190376583</v>
       </c>
       <c r="W33" t="n">
-        <v>209.5975219593417</v>
+        <v>283.2492567629311</v>
       </c>
       <c r="X33" t="n">
-        <v>156.3813289073736</v>
+        <v>230.033063710963</v>
       </c>
       <c r="Y33" t="n">
-        <v>242.8962664135933</v>
+        <v>169.2445316100039</v>
       </c>
     </row>
     <row r="34">
@@ -25156,19 +25156,19 @@
         <v>364.5563275970632</v>
       </c>
       <c r="C35" t="n">
-        <v>333.5971194742085</v>
+        <v>272.5562390587124</v>
       </c>
       <c r="D35" t="n">
-        <v>248.9878741237279</v>
+        <v>319.1317556432476</v>
       </c>
       <c r="E35" t="n">
-        <v>286.3068201326979</v>
+        <v>359.9585549362873</v>
       </c>
       <c r="F35" t="n">
-        <v>325.4946827697796</v>
+        <v>399.146417573369</v>
       </c>
       <c r="G35" t="n">
-        <v>421.7434376086887</v>
+        <v>348.0917028050993</v>
       </c>
       <c r="H35" t="n">
         <v>345.1830522891943</v>
@@ -25177,10 +25177,10 @@
         <v>236.4320122298547</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>64.07103482746055</v>
       </c>
       <c r="K35" t="n">
-        <v>2.685754023983435</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -25198,7 +25198,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>70.48828190750086</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>182.1995366087474</v>
@@ -25219,7 +25219,7 @@
         <v>325.3917254792934</v>
       </c>
       <c r="X35" t="n">
-        <v>348.8168793035129</v>
+        <v>275.1651444999235</v>
       </c>
       <c r="Y35" t="n">
         <v>377.9289763951821</v>
@@ -25235,13 +25235,13 @@
         <v>188.0127573810344</v>
       </c>
       <c r="C36" t="n">
-        <v>203.8424276152394</v>
+        <v>138.9699796002379</v>
       </c>
       <c r="D36" t="n">
-        <v>172.0989423795122</v>
+        <v>98.44720757592282</v>
       </c>
       <c r="E36" t="n">
-        <v>187.4605452976028</v>
+        <v>113.8088104940134</v>
       </c>
       <c r="F36" t="n">
         <v>100.3326133217345</v>
@@ -25253,10 +25253,10 @@
         <v>135.491499978801</v>
       </c>
       <c r="I36" t="n">
-        <v>103.3866761310093</v>
+        <v>108.8981075783919</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>59.36101656761896</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25298,10 +25298,10 @@
         <v>283.2492567629311</v>
       </c>
       <c r="X36" t="n">
-        <v>156.3813289073736</v>
+        <v>230.033063710963</v>
       </c>
       <c r="Y36" t="n">
-        <v>169.2445316100039</v>
+        <v>242.8962664135933</v>
       </c>
     </row>
     <row r="37">
@@ -25396,19 +25396,19 @@
         <v>333.5971194742085</v>
       </c>
       <c r="D38" t="n">
-        <v>245.4800208396582</v>
+        <v>319.1317556432476</v>
       </c>
       <c r="E38" t="n">
-        <v>286.3068201326979</v>
+        <v>359.9585549362873</v>
       </c>
       <c r="F38" t="n">
-        <v>399.146417573369</v>
+        <v>338.583236029978</v>
       </c>
       <c r="G38" t="n">
-        <v>421.7434376086887</v>
+        <v>348.0917028050994</v>
       </c>
       <c r="H38" t="n">
-        <v>284.6198707458033</v>
+        <v>345.1830522891943</v>
       </c>
       <c r="I38" t="n">
         <v>236.4320122298547</v>
@@ -25459,7 +25459,7 @@
         <v>348.8168793035129</v>
       </c>
       <c r="Y38" t="n">
-        <v>377.9289763951821</v>
+        <v>304.2772415915928</v>
       </c>
     </row>
     <row r="39">
@@ -25469,10 +25469,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>147.111350355104</v>
+        <v>188.0127573810344</v>
       </c>
       <c r="C39" t="n">
-        <v>130.19069281165</v>
+        <v>203.8424276152394</v>
       </c>
       <c r="D39" t="n">
         <v>172.0989423795122</v>
@@ -25514,7 +25514,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>23.97104098907107</v>
       </c>
       <c r="R39" t="n">
         <v>139.8707383973617</v>
@@ -25526,19 +25526,19 @@
         <v>229.1525661987865</v>
       </c>
       <c r="U39" t="n">
-        <v>249.6341671690735</v>
+        <v>175.9824323654841</v>
       </c>
       <c r="V39" t="n">
-        <v>249.2999251801724</v>
+        <v>175.648190376583</v>
       </c>
       <c r="W39" t="n">
-        <v>283.2492567629311</v>
+        <v>209.5975219593417</v>
       </c>
       <c r="X39" t="n">
-        <v>156.3813289073736</v>
+        <v>230.033063710963</v>
       </c>
       <c r="Y39" t="n">
-        <v>169.2445316100039</v>
+        <v>178.0238183985919</v>
       </c>
     </row>
     <row r="40">
@@ -25630,7 +25630,7 @@
         <v>364.5563275970632</v>
       </c>
       <c r="C41" t="n">
-        <v>264.5272735293224</v>
+        <v>333.5971194742085</v>
       </c>
       <c r="D41" t="n">
         <v>319.1317556432476</v>
@@ -25642,7 +25642,7 @@
         <v>399.146417573369</v>
       </c>
       <c r="G41" t="n">
-        <v>421.7434376086887</v>
+        <v>355.9079061830075</v>
       </c>
       <c r="H41" t="n">
         <v>345.1830522891943</v>
@@ -25651,7 +25651,7 @@
         <v>236.4320122298547</v>
       </c>
       <c r="J41" t="n">
-        <v>64.07103482746055</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>2.685754023983435</v>
@@ -25672,10 +25672,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.651561599245248</v>
+        <v>1.41843596261478</v>
       </c>
       <c r="R41" t="n">
-        <v>182.1995366087474</v>
+        <v>113.1296906638613</v>
       </c>
       <c r="S41" t="n">
         <v>225.306160430806</v>
@@ -25690,13 +25690,13 @@
         <v>313.3044420010231</v>
       </c>
       <c r="W41" t="n">
-        <v>256.3218795344073</v>
+        <v>325.3917254792934</v>
       </c>
       <c r="X41" t="n">
         <v>348.8168793035129</v>
       </c>
       <c r="Y41" t="n">
-        <v>308.859130450296</v>
+        <v>377.9289763951821</v>
       </c>
     </row>
     <row r="42">
@@ -25721,7 +25721,7 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G42" t="n">
-        <v>160.7810793552916</v>
+        <v>91.7112334104055</v>
       </c>
       <c r="H42" t="n">
         <v>135.491499978801</v>
@@ -25751,31 +25751,31 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>23.97104098907107</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>139.8707383973617</v>
+        <v>70.80089245247558</v>
       </c>
       <c r="S42" t="n">
-        <v>134.6083020903131</v>
+        <v>203.6781480351992</v>
       </c>
       <c r="T42" t="n">
         <v>229.1525661987865</v>
       </c>
       <c r="U42" t="n">
-        <v>180.5643212241874</v>
+        <v>249.6341671690735</v>
       </c>
       <c r="V42" t="n">
-        <v>249.2999251801724</v>
+        <v>180.2300792352863</v>
       </c>
       <c r="W42" t="n">
-        <v>214.179410818045</v>
+        <v>246.3835774437466</v>
       </c>
       <c r="X42" t="n">
         <v>230.033063710963</v>
       </c>
       <c r="Y42" t="n">
-        <v>182.0595461053377</v>
+        <v>242.8962664135933</v>
       </c>
     </row>
     <row r="43">
@@ -25870,16 +25870,16 @@
         <v>264.5272735293224</v>
       </c>
       <c r="D44" t="n">
-        <v>250.0619096983615</v>
+        <v>319.1317556432476</v>
       </c>
       <c r="E44" t="n">
-        <v>290.8887089914012</v>
+        <v>359.9585549362873</v>
       </c>
       <c r="F44" t="n">
-        <v>399.146417573369</v>
+        <v>330.076571628483</v>
       </c>
       <c r="G44" t="n">
-        <v>421.7434376086887</v>
+        <v>352.6735916638027</v>
       </c>
       <c r="H44" t="n">
         <v>345.1830522891943</v>
@@ -25958,7 +25958,7 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G45" t="n">
-        <v>160.7810793552916</v>
+        <v>123.915400036107</v>
       </c>
       <c r="H45" t="n">
         <v>135.491499978801</v>
@@ -26000,10 +26000,10 @@
         <v>160.0827202539004</v>
       </c>
       <c r="U45" t="n">
-        <v>212.7684878498889</v>
+        <v>180.5643212241874</v>
       </c>
       <c r="V45" t="n">
-        <v>180.2300792352863</v>
+        <v>249.2999251801724</v>
       </c>
       <c r="W45" t="n">
         <v>214.179410818045</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>457239.6719976793</v>
+        <v>457239.6719976796</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>461210.9584120547</v>
+        <v>461210.9584120548</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>463771.5040540951</v>
+        <v>463771.5040540952</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>463771.5040540954</v>
+        <v>463771.5040540952</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>463771.5040540951</v>
+        <v>463771.5040540954</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>463771.5040540952</v>
+        <v>463771.5040540951</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>461210.9584120548</v>
+        <v>461210.9584120549</v>
       </c>
     </row>
     <row r="16">
@@ -26322,10 +26322,10 @@
         <v>121504.2796106751</v>
       </c>
       <c r="E2" t="n">
-        <v>155900.5892417884</v>
+        <v>155900.5892417886</v>
       </c>
       <c r="F2" t="n">
-        <v>155900.5892417885</v>
+        <v>155900.5892417886</v>
       </c>
       <c r="G2" t="n">
         <v>157246.8727916794</v>
@@ -26337,13 +26337,13 @@
         <v>158068.7134127951</v>
       </c>
       <c r="J2" t="n">
-        <v>158068.7134127951</v>
+        <v>158068.713412795</v>
       </c>
       <c r="K2" t="n">
         <v>158068.7134127951</v>
       </c>
       <c r="L2" t="n">
-        <v>158068.7134127952</v>
+        <v>158068.713412795</v>
       </c>
       <c r="M2" t="n">
         <v>158068.7134127951</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>136988.9081309979</v>
+        <v>136988.9081309981</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1218.420467195265</v>
+        <v>1218.42046719525</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>16070.65685770509</v>
+        <v>16070.65685770514</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,34 +26426,34 @@
         <v>8108.232771535897</v>
       </c>
       <c r="E4" t="n">
-        <v>6906.920330386651</v>
+        <v>6906.920330386657</v>
       </c>
       <c r="F4" t="n">
-        <v>6906.920330386651</v>
+        <v>6906.920330386658</v>
       </c>
       <c r="G4" t="n">
-        <v>6992.263220624148</v>
+        <v>6992.263220624149</v>
       </c>
       <c r="H4" t="n">
-        <v>6992.263220624148</v>
+        <v>6992.263220624147</v>
       </c>
       <c r="I4" t="n">
         <v>7181.397714934805</v>
       </c>
       <c r="J4" t="n">
-        <v>7181.397714934804</v>
+        <v>7181.397714934805</v>
       </c>
       <c r="K4" t="n">
         <v>7181.397714934804</v>
       </c>
       <c r="L4" t="n">
+        <v>7181.397714934805</v>
+      </c>
+      <c r="M4" t="n">
+        <v>7181.397714934805</v>
+      </c>
+      <c r="N4" t="n">
         <v>7181.397714934804</v>
-      </c>
-      <c r="M4" t="n">
-        <v>7181.397714934804</v>
-      </c>
-      <c r="N4" t="n">
-        <v>7181.397714934806</v>
       </c>
       <c r="O4" t="n">
         <v>6992.263220624149</v>
@@ -26478,10 +26478,10 @@
         <v>40368.52827033812</v>
       </c>
       <c r="E5" t="n">
-        <v>13856.46431457839</v>
+        <v>13856.46431457841</v>
       </c>
       <c r="F5" t="n">
-        <v>13856.46431457839</v>
+        <v>13856.46431457841</v>
       </c>
       <c r="G5" t="n">
         <v>14214.09438276182</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-224937.8994754801</v>
+        <v>-242007.7980437615</v>
       </c>
       <c r="C6" t="n">
-        <v>73027.5185688011</v>
+        <v>55957.6200005197</v>
       </c>
       <c r="D6" t="n">
-        <v>73027.5185688011</v>
+        <v>55957.6200005197</v>
       </c>
       <c r="E6" t="n">
-        <v>-1851.703534174536</v>
+        <v>-17010.69601183855</v>
       </c>
       <c r="F6" t="n">
-        <v>135137.2045968234</v>
+        <v>119978.2121191595</v>
       </c>
       <c r="G6" t="n">
-        <v>131965.3624823798</v>
+        <v>116881.1635352653</v>
       </c>
       <c r="H6" t="n">
-        <v>136040.5151882934</v>
+        <v>120956.3162411789</v>
       </c>
       <c r="I6" t="n">
-        <v>135176.2220052941</v>
+        <v>120137.6808704638</v>
       </c>
       <c r="J6" t="n">
-        <v>136394.6424724893</v>
+        <v>121356.101337659</v>
       </c>
       <c r="K6" t="n">
-        <v>136394.6424724893</v>
+        <v>121356.101337659</v>
       </c>
       <c r="L6" t="n">
-        <v>136394.6424724894</v>
+        <v>121356.101337659</v>
       </c>
       <c r="M6" t="n">
-        <v>120323.9856147842</v>
+        <v>105285.4444799539</v>
       </c>
       <c r="N6" t="n">
-        <v>136394.6424724893</v>
+        <v>121356.101337659</v>
       </c>
       <c r="O6" t="n">
-        <v>136040.5151882934</v>
+        <v>120956.3162411789</v>
       </c>
       <c r="P6" t="n">
-        <v>136040.5151882934</v>
+        <v>120956.316241179</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>309.2168931347763</v>
       </c>
       <c r="E3" t="n">
-        <v>455.7613084283707</v>
+        <v>455.7613084283709</v>
       </c>
       <c r="F3" t="n">
-        <v>455.7613084283707</v>
+        <v>455.7613084283709</v>
       </c>
       <c r="G3" t="n">
         <v>459.3875114363644</v>
@@ -26798,13 +26798,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>64.48795708618265</v>
+        <v>64.48795708618289</v>
       </c>
       <c r="F4" t="n">
-        <v>64.48795708618265</v>
+        <v>64.48795708618289</v>
       </c>
       <c r="G4" t="n">
-        <v>69.06984594488607</v>
+        <v>69.06984594488608</v>
       </c>
       <c r="H4" t="n">
         <v>69.06984594488605</v>
@@ -26825,13 +26825,13 @@
         <v>73.65173480358939</v>
       </c>
       <c r="N4" t="n">
-        <v>73.65173480358941</v>
+        <v>73.65173480358936</v>
       </c>
       <c r="O4" t="n">
-        <v>69.06984594488607</v>
+        <v>69.06984594488608</v>
       </c>
       <c r="P4" t="n">
-        <v>69.06984594488607</v>
+        <v>69.06984594488608</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>146.5444152935945</v>
+        <v>146.5444152935946</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>64.48795708618269</v>
+        <v>64.48795708618292</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4.581888858703394</v>
+        <v>4.581888858703337</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>64.48795708618275</v>
+        <v>64.48795708618297</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>64.48795708618269</v>
+        <v>64.48795708618292</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,46 +31752,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.832206265038675</v>
+        <v>1.832206265038676</v>
       </c>
       <c r="H11" t="n">
         <v>18.76408241182734</v>
       </c>
       <c r="I11" t="n">
-        <v>70.63613203290359</v>
+        <v>70.63613203290362</v>
       </c>
       <c r="J11" t="n">
         <v>155.5062164873264</v>
       </c>
       <c r="K11" t="n">
-        <v>233.0635076864135</v>
+        <v>233.0635076864136</v>
       </c>
       <c r="L11" t="n">
-        <v>289.1358901700909</v>
+        <v>289.135890170091</v>
       </c>
       <c r="M11" t="n">
-        <v>321.7193883359724</v>
+        <v>321.7193883359726</v>
       </c>
       <c r="N11" t="n">
-        <v>326.9251443865136</v>
+        <v>326.9251443865138</v>
       </c>
       <c r="O11" t="n">
-        <v>308.7061433385353</v>
+        <v>308.7061433385354</v>
       </c>
       <c r="P11" t="n">
-        <v>263.473551170393</v>
+        <v>263.4735511703931</v>
       </c>
       <c r="Q11" t="n">
-        <v>197.8576643036953</v>
+        <v>197.8576643036954</v>
       </c>
       <c r="R11" t="n">
         <v>115.0923267962358</v>
       </c>
       <c r="S11" t="n">
-        <v>41.75140026456885</v>
+        <v>41.75140026456886</v>
       </c>
       <c r="T11" t="n">
-        <v>8.020482925206803</v>
+        <v>8.020482925206807</v>
       </c>
       <c r="U11" t="n">
         <v>0.146576501203094</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9803167766195144</v>
+        <v>0.9803167766195148</v>
       </c>
       <c r="H12" t="n">
-        <v>9.467796237351628</v>
+        <v>9.467796237351632</v>
       </c>
       <c r="I12" t="n">
-        <v>33.75213463361048</v>
+        <v>33.7521346336105</v>
       </c>
       <c r="J12" t="n">
-        <v>92.61843721561826</v>
+        <v>92.6184372156183</v>
       </c>
       <c r="K12" t="n">
-        <v>158.2996612491257</v>
+        <v>158.2996612491258</v>
       </c>
       <c r="L12" t="n">
         <v>212.8534299410047</v>
       </c>
       <c r="M12" t="n">
-        <v>248.389913093462</v>
+        <v>248.3899130934621</v>
       </c>
       <c r="N12" t="n">
-        <v>254.964054985792</v>
+        <v>254.9640549857922</v>
       </c>
       <c r="O12" t="n">
-        <v>233.2422990406965</v>
+        <v>233.2422990406966</v>
       </c>
       <c r="P12" t="n">
-        <v>187.1975079844755</v>
+        <v>187.1975079844756</v>
       </c>
       <c r="Q12" t="n">
         <v>125.136576608484</v>
       </c>
       <c r="R12" t="n">
-        <v>60.86563285011339</v>
+        <v>60.86563285011341</v>
       </c>
       <c r="S12" t="n">
-        <v>18.20895416220895</v>
+        <v>18.20895416220896</v>
       </c>
       <c r="T12" t="n">
-        <v>3.95136455137427</v>
+        <v>3.951364551374271</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06449452477759966</v>
+        <v>0.06449452477759969</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8218646545429635</v>
+        <v>0.8218646545429639</v>
       </c>
       <c r="H13" t="n">
-        <v>7.307123928572899</v>
+        <v>7.307123928572902</v>
       </c>
       <c r="I13" t="n">
         <v>24.71571161116477</v>
       </c>
       <c r="J13" t="n">
-        <v>58.10583107618752</v>
+        <v>58.10583107618754</v>
       </c>
       <c r="K13" t="n">
-        <v>95.48572986417338</v>
+        <v>95.48572986417342</v>
       </c>
       <c r="L13" t="n">
         <v>122.1888596399603</v>
@@ -31931,28 +31931,28 @@
         <v>128.8310203480393</v>
       </c>
       <c r="N13" t="n">
-        <v>125.7677066356519</v>
+        <v>125.767706635652</v>
       </c>
       <c r="O13" t="n">
         <v>116.1668331712182</v>
       </c>
       <c r="P13" t="n">
-        <v>99.40079421854166</v>
+        <v>99.40079421854169</v>
       </c>
       <c r="Q13" t="n">
-        <v>68.81995757268398</v>
+        <v>68.819957572684</v>
       </c>
       <c r="R13" t="n">
-        <v>36.95402346699542</v>
+        <v>36.95402346699544</v>
       </c>
       <c r="S13" t="n">
         <v>14.32285947962601</v>
       </c>
       <c r="T13" t="n">
-        <v>3.511603523956298</v>
+        <v>3.511603523956299</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04482898115688897</v>
+        <v>0.04482898115688899</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,46 +31989,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.832206265038675</v>
+        <v>1.832206265038676</v>
       </c>
       <c r="H14" t="n">
         <v>18.76408241182734</v>
       </c>
       <c r="I14" t="n">
-        <v>70.63613203290359</v>
+        <v>70.63613203290362</v>
       </c>
       <c r="J14" t="n">
         <v>155.5062164873264</v>
       </c>
       <c r="K14" t="n">
-        <v>233.0635076864135</v>
+        <v>233.0635076864136</v>
       </c>
       <c r="L14" t="n">
-        <v>289.1358901700909</v>
+        <v>289.135890170091</v>
       </c>
       <c r="M14" t="n">
-        <v>321.7193883359724</v>
+        <v>321.7193883359726</v>
       </c>
       <c r="N14" t="n">
-        <v>326.9251443865136</v>
+        <v>326.9251443865138</v>
       </c>
       <c r="O14" t="n">
-        <v>308.7061433385353</v>
+        <v>308.7061433385354</v>
       </c>
       <c r="P14" t="n">
-        <v>263.473551170393</v>
+        <v>263.4735511703931</v>
       </c>
       <c r="Q14" t="n">
-        <v>197.8576643036953</v>
+        <v>197.8576643036954</v>
       </c>
       <c r="R14" t="n">
         <v>115.0923267962358</v>
       </c>
       <c r="S14" t="n">
-        <v>41.75140026456885</v>
+        <v>41.75140026456886</v>
       </c>
       <c r="T14" t="n">
-        <v>8.020482925206803</v>
+        <v>8.020482925206807</v>
       </c>
       <c r="U14" t="n">
         <v>0.146576501203094</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9803167766195144</v>
+        <v>0.9803167766195148</v>
       </c>
       <c r="H15" t="n">
-        <v>9.467796237351628</v>
+        <v>9.467796237351632</v>
       </c>
       <c r="I15" t="n">
-        <v>33.75213463361048</v>
+        <v>33.7521346336105</v>
       </c>
       <c r="J15" t="n">
-        <v>92.61843721561826</v>
+        <v>92.6184372156183</v>
       </c>
       <c r="K15" t="n">
-        <v>158.2996612491257</v>
+        <v>158.2996612491258</v>
       </c>
       <c r="L15" t="n">
         <v>212.8534299410047</v>
       </c>
       <c r="M15" t="n">
-        <v>248.389913093462</v>
+        <v>248.3899130934621</v>
       </c>
       <c r="N15" t="n">
-        <v>254.964054985792</v>
+        <v>254.9640549857922</v>
       </c>
       <c r="O15" t="n">
-        <v>233.2422990406965</v>
+        <v>233.2422990406966</v>
       </c>
       <c r="P15" t="n">
-        <v>187.1975079844755</v>
+        <v>187.1975079844756</v>
       </c>
       <c r="Q15" t="n">
         <v>125.136576608484</v>
       </c>
       <c r="R15" t="n">
-        <v>60.86563285011339</v>
+        <v>60.86563285011341</v>
       </c>
       <c r="S15" t="n">
-        <v>18.20895416220895</v>
+        <v>18.20895416220896</v>
       </c>
       <c r="T15" t="n">
-        <v>3.95136455137427</v>
+        <v>3.951364551374271</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06449452477759966</v>
+        <v>0.06449452477759969</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8218646545429635</v>
+        <v>0.8218646545429639</v>
       </c>
       <c r="H16" t="n">
-        <v>7.307123928572899</v>
+        <v>7.307123928572902</v>
       </c>
       <c r="I16" t="n">
         <v>24.71571161116477</v>
       </c>
       <c r="J16" t="n">
-        <v>58.10583107618752</v>
+        <v>58.10583107618754</v>
       </c>
       <c r="K16" t="n">
-        <v>95.48572986417338</v>
+        <v>95.48572986417342</v>
       </c>
       <c r="L16" t="n">
         <v>122.1888596399603</v>
@@ -32168,28 +32168,28 @@
         <v>128.8310203480393</v>
       </c>
       <c r="N16" t="n">
-        <v>125.7677066356519</v>
+        <v>125.767706635652</v>
       </c>
       <c r="O16" t="n">
         <v>116.1668331712182</v>
       </c>
       <c r="P16" t="n">
-        <v>99.40079421854166</v>
+        <v>99.40079421854169</v>
       </c>
       <c r="Q16" t="n">
-        <v>68.81995757268398</v>
+        <v>68.819957572684</v>
       </c>
       <c r="R16" t="n">
-        <v>36.95402346699542</v>
+        <v>36.95402346699544</v>
       </c>
       <c r="S16" t="n">
         <v>14.32285947962601</v>
       </c>
       <c r="T16" t="n">
-        <v>3.511603523956298</v>
+        <v>3.511603523956299</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04482898115688897</v>
+        <v>0.04482898115688899</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -35415,19 +35415,19 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>52.91942405960168</v>
+        <v>52.91942405960179</v>
       </c>
       <c r="M11" t="n">
-        <v>64.48795708618265</v>
+        <v>64.48795708618289</v>
       </c>
       <c r="N11" t="n">
-        <v>64.48795708618265</v>
+        <v>64.48795708618289</v>
       </c>
       <c r="O11" t="n">
-        <v>64.48795708618265</v>
+        <v>64.48795708618289</v>
       </c>
       <c r="P11" t="n">
-        <v>8.962959002896753</v>
+        <v>8.962959002896866</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35494,19 +35494,19 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>38.79824754406756</v>
+        <v>64.48795708618289</v>
       </c>
       <c r="M12" t="n">
-        <v>64.48795708618265</v>
+        <v>40.51888848251031</v>
       </c>
       <c r="N12" t="n">
-        <v>62.87680106391707</v>
+        <v>62.87680106391718</v>
       </c>
       <c r="O12" t="n">
-        <v>24.6952915406965</v>
+        <v>24.69529154069659</v>
       </c>
       <c r="P12" t="n">
-        <v>64.48795708618265</v>
+        <v>62.76731614774043</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35652,19 +35652,19 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>52.91942405960168</v>
+        <v>52.91942405960179</v>
       </c>
       <c r="M14" t="n">
-        <v>64.48795708618265</v>
+        <v>64.48795708618289</v>
       </c>
       <c r="N14" t="n">
-        <v>64.48795708618265</v>
+        <v>64.48795708618289</v>
       </c>
       <c r="O14" t="n">
-        <v>64.48795708618265</v>
+        <v>64.48795708618289</v>
       </c>
       <c r="P14" t="n">
-        <v>8.962959002896753</v>
+        <v>8.962959002896866</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35728,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>25.46751837239617</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>10.21764951293869</v>
+        <v>64.48795708618289</v>
       </c>
       <c r="M15" t="n">
-        <v>40.51888848251019</v>
+        <v>63.49353908476444</v>
       </c>
       <c r="N15" t="n">
-        <v>62.87680106391707</v>
+        <v>62.87680106391718</v>
       </c>
       <c r="O15" t="n">
-        <v>51.77743980310164</v>
+        <v>64.48795708618289</v>
       </c>
       <c r="P15" t="n">
-        <v>64.48795708618265</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35892,13 +35892,13 @@
         <v>55.21989453672319</v>
       </c>
       <c r="M17" t="n">
-        <v>69.06984594488607</v>
+        <v>69.06984594488608</v>
       </c>
       <c r="N17" t="n">
-        <v>69.06984594488607</v>
+        <v>69.06984594488608</v>
       </c>
       <c r="O17" t="n">
-        <v>69.06984594488607</v>
+        <v>69.06984594488608</v>
       </c>
       <c r="P17" t="n">
         <v>11.05925056190478</v>
@@ -35965,10 +35965,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>26.72700814735185</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>69.06984594488607</v>
+        <v>27.94843395045658</v>
       </c>
       <c r="M18" t="n">
         <v>42.49516912186675</v>
@@ -35977,10 +35977,10 @@
         <v>64.90538797119083</v>
       </c>
       <c r="O18" t="n">
-        <v>26.55105224423079</v>
+        <v>69.06984594488608</v>
       </c>
       <c r="P18" t="n">
-        <v>43.74021950375995</v>
+        <v>69.06984594488608</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36202,22 +36202,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>26.72700814735185</v>
       </c>
       <c r="L21" t="n">
+        <v>43.74021950375992</v>
+      </c>
+      <c r="M21" t="n">
+        <v>42.49516912186675</v>
+      </c>
+      <c r="N21" t="n">
+        <v>64.90538797119083</v>
+      </c>
+      <c r="O21" t="n">
+        <v>26.55105224423079</v>
+      </c>
+      <c r="P21" t="n">
         <v>69.06984594488605</v>
-      </c>
-      <c r="M21" t="n">
-        <v>69.06984594488605</v>
-      </c>
-      <c r="N21" t="n">
-        <v>66.27914509862805</v>
-      </c>
-      <c r="O21" t="n">
-        <v>69.06984594488605</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36439,22 +36439,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>26.72700814735185</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>73.65173480358939</v>
       </c>
       <c r="M24" t="n">
-        <v>42.49516912186675</v>
+        <v>73.65173480358939</v>
       </c>
       <c r="N24" t="n">
-        <v>64.90538797119083</v>
+        <v>73.65173480358939</v>
       </c>
       <c r="O24" t="n">
-        <v>26.55105224423079</v>
+        <v>70.67590713475751</v>
       </c>
       <c r="P24" t="n">
-        <v>57.30075925729605</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36685,13 +36685,13 @@
         <v>73.65173480358939</v>
       </c>
       <c r="N27" t="n">
-        <v>70.67590713475751</v>
+        <v>64.90538797119083</v>
       </c>
       <c r="O27" t="n">
         <v>73.65173480358939</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>5.770519163566651</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36916,16 +36916,16 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>73.65173480358939</v>
+        <v>11.91118894605876</v>
       </c>
       <c r="M30" t="n">
-        <v>42.49516912186675</v>
+        <v>67.51106502109732</v>
       </c>
       <c r="N30" t="n">
         <v>64.90538797119083</v>
       </c>
       <c r="O30" t="n">
-        <v>36.92708484528931</v>
+        <v>73.65173480358939</v>
       </c>
       <c r="P30" t="n">
         <v>73.65173480358939</v>
@@ -37150,16 +37150,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>26.72700814735185</v>
       </c>
       <c r="L33" t="n">
         <v>73.65173480358939</v>
       </c>
       <c r="M33" t="n">
+        <v>43.94889898740566</v>
+      </c>
+      <c r="N33" t="n">
         <v>73.65173480358939</v>
-      </c>
-      <c r="N33" t="n">
-        <v>70.67590713475751</v>
       </c>
       <c r="O33" t="n">
         <v>73.65173480358939</v>
@@ -37551,13 +37551,13 @@
         <v>55.21989453672319</v>
       </c>
       <c r="M38" t="n">
-        <v>73.65173480358941</v>
+        <v>73.65173480358936</v>
       </c>
       <c r="N38" t="n">
-        <v>73.65173480358941</v>
+        <v>73.65173480358936</v>
       </c>
       <c r="O38" t="n">
-        <v>73.65173480358941</v>
+        <v>73.65173480358936</v>
       </c>
       <c r="P38" t="n">
         <v>11.05925056190478</v>
@@ -37627,19 +37627,19 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>73.65173480358941</v>
+        <v>73.65173480358936</v>
       </c>
       <c r="M39" t="n">
-        <v>73.65173480358941</v>
+        <v>42.49516912186675</v>
       </c>
       <c r="N39" t="n">
-        <v>70.67590713475748</v>
+        <v>64.90538797119083</v>
       </c>
       <c r="O39" t="n">
-        <v>73.65173480358941</v>
+        <v>36.92708484528922</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>73.65173480358936</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37788,13 +37788,13 @@
         <v>55.21989453672319</v>
       </c>
       <c r="M41" t="n">
-        <v>69.06984594488607</v>
+        <v>69.06984594488608</v>
       </c>
       <c r="N41" t="n">
-        <v>69.06984594488607</v>
+        <v>69.06984594488608</v>
       </c>
       <c r="O41" t="n">
-        <v>69.06984594488607</v>
+        <v>69.06984594488608</v>
       </c>
       <c r="P41" t="n">
         <v>11.05925056190478</v>
@@ -37861,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>26.72700814735185</v>
       </c>
       <c r="L42" t="n">
-        <v>69.06984594488607</v>
+        <v>43.74021950376</v>
       </c>
       <c r="M42" t="n">
-        <v>69.06984594488607</v>
+        <v>42.49516912186675</v>
       </c>
       <c r="N42" t="n">
-        <v>66.27914509862805</v>
+        <v>64.90538797119083</v>
       </c>
       <c r="O42" t="n">
-        <v>69.06984594488607</v>
+        <v>26.55105224423079</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>69.06984594488608</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38025,16 +38025,16 @@
         <v>55.21989453672319</v>
       </c>
       <c r="M44" t="n">
-        <v>69.06984594488607</v>
+        <v>69.06984594488608</v>
       </c>
       <c r="N44" t="n">
-        <v>69.06984594488607</v>
+        <v>69.06984594488608</v>
       </c>
       <c r="O44" t="n">
-        <v>69.06984594488607</v>
+        <v>69.06984594488617</v>
       </c>
       <c r="P44" t="n">
-        <v>11.05925056190486</v>
+        <v>11.05925056190478</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38101,19 +38101,19 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>69.06984594488607</v>
+        <v>69.06984594488608</v>
       </c>
       <c r="M45" t="n">
         <v>42.49516912186675</v>
       </c>
       <c r="N45" t="n">
-        <v>64.90538797119083</v>
+        <v>66.30276967741661</v>
       </c>
       <c r="O45" t="n">
-        <v>69.06984594488607</v>
+        <v>26.55105224423079</v>
       </c>
       <c r="P45" t="n">
-        <v>27.94843395045655</v>
+        <v>69.06984594488608</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
